--- a/intensities/tilastokeskus data väestörakenne 2018 naiset.xlsx
+++ b/intensities/tilastokeskus data väestörakenne 2018 naiset.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Documents/Github/ty-llisyyspaperi/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Documents/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE69E245-8FFD-F149-A599-E50BF52959C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034628CD-C4B9-5A49-9B9D-4C03F6F88A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="2300" windowWidth="19740" windowHeight="14600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7420" yWindow="460" windowWidth="19740" windowHeight="14600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="022_115c_2018" sheetId="2" r:id="rId1"/>
     <sheet name="Yhteensä" sheetId="3" r:id="rId2"/>
-    <sheet name="alkavuus" sheetId="5" r:id="rId3"/>
-    <sheet name="kuva" sheetId="4" r:id="rId4"/>
+    <sheet name="tkmalli2" sheetId="6" r:id="rId3"/>
+    <sheet name="osatyö" sheetId="8" r:id="rId4"/>
+    <sheet name="alkavuus" sheetId="5" r:id="rId5"/>
+    <sheet name="kuva" sheetId="4" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="107">
   <si>
     <t>Väestö muuttujina Pääasiallinen toiminta, Sukupuoli, Ikä, Vuosi ja Tiedot</t>
   </si>
@@ -361,18 +363,68 @@
   <si>
     <t>non-outsider</t>
   </si>
+  <si>
+    <t>tk</t>
+  </si>
+  <si>
+    <t>efektiivinen tk</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>eff.pop</t>
+  </si>
+  <si>
+    <t>oikea</t>
+  </si>
+  <si>
+    <t>määrä</t>
+  </si>
+  <si>
+    <t>osuus</t>
+  </si>
+  <si>
+    <t>Osa-aikatyö</t>
+  </si>
+  <si>
+    <t>Kokoaikatyö</t>
+  </si>
+  <si>
+    <t>yht</t>
+  </si>
+  <si>
+    <t>15 - 24</t>
+  </si>
+  <si>
+    <t>25 - 34</t>
+  </si>
+  <si>
+    <t>35 - 44</t>
+  </si>
+  <si>
+    <t>45 - 54</t>
+  </si>
+  <si>
+    <t>55 - 64</t>
+  </si>
+  <si>
+    <t>65 - 74</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -405,6 +457,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -428,7 +490,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -445,6 +507,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -6474,6 +6541,8 @@
     <sheetNames>
       <sheetName val="022_115c_2018"/>
       <sheetName val="alkavuus"/>
+      <sheetName val="tkmalli2"/>
+      <sheetName val="osatyö"/>
       <sheetName val="Yhteensä"/>
       <sheetName val="kuva"/>
     </sheetNames>
@@ -7485,6 +7554,264 @@
       </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19" t="str">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>46</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>47</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33" t="str">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34" t="str">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35" t="str">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36" t="str">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37" t="str">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38" t="str">
+            <v>53</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39" t="str">
+            <v>54</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40" t="str">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41" t="str">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42" t="str">
+            <v>57</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43" t="str">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44" t="str">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45" t="str">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46" t="str">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47" t="str">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48" t="str">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49" t="str">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50" t="str">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51" t="str">
+            <v>66</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52" t="str">
+            <v>67</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53" t="str">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54" t="str">
+            <v>69</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55" t="str">
+            <v>70</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7781,7 +8108,7 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
@@ -7791,7 +8118,7 @@
     <col min="7" max="9" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7799,12 +8126,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="D4" s="2" t="s">
         <v>80</v>
       </c>
@@ -7833,7 +8160,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -7871,7 +8198,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -7903,7 +8230,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -7935,7 +8262,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -7967,7 +8294,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -7999,7 +8326,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
@@ -8031,7 +8358,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
@@ -8063,7 +8390,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
@@ -8095,7 +8422,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
@@ -8127,7 +8454,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
@@ -8159,7 +8486,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
@@ -8191,7 +8518,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
@@ -8223,7 +8550,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12">
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
@@ -8255,7 +8582,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12">
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
@@ -8287,7 +8614,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12">
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
@@ -8319,7 +8646,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
@@ -8351,7 +8678,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12">
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
@@ -8383,7 +8710,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12">
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
@@ -8415,7 +8742,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12">
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
@@ -8447,7 +8774,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12">
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
@@ -8479,7 +8806,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12">
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
@@ -8511,7 +8838,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12">
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
@@ -8543,7 +8870,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12">
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
@@ -8575,7 +8902,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12">
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
@@ -8607,7 +8934,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12">
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
@@ -8639,7 +8966,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12">
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
@@ -8671,7 +8998,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12">
       <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
@@ -8703,7 +9030,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12">
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
@@ -8735,7 +9062,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:12">
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
@@ -8767,7 +9094,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:12">
       <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
@@ -8799,7 +9126,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:12">
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
@@ -8831,7 +9158,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:12">
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
@@ -8863,7 +9190,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:12">
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
@@ -8895,7 +9222,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:12">
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
@@ -8927,7 +9254,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:12">
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
@@ -8959,7 +9286,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:12">
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
@@ -8991,7 +9318,7 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:12">
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
@@ -9023,7 +9350,7 @@
         <v>3878</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:12">
       <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
@@ -9055,7 +9382,7 @@
         <v>4274</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:12">
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
@@ -9087,7 +9414,7 @@
         <v>4935</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:12">
       <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
@@ -9119,7 +9446,7 @@
         <v>5683</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:12">
       <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
@@ -9151,7 +9478,7 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:12">
       <c r="C46" s="2" t="s">
         <v>45</v>
       </c>
@@ -9183,7 +9510,7 @@
         <v>7765</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:12">
       <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
@@ -9215,7 +9542,7 @@
         <v>8663</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:12">
       <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
@@ -9247,7 +9574,7 @@
         <v>5374</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
@@ -9279,7 +9606,7 @@
         <v>4937</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
@@ -9311,7 +9638,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
@@ -9340,7 +9667,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="C52" s="2" t="s">
         <v>51</v>
       </c>
@@ -9369,7 +9696,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
@@ -9398,7 +9725,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12">
       <c r="C54" s="2" t="s">
         <v>53</v>
       </c>
@@ -9427,7 +9754,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="C55" s="2" t="s">
         <v>54</v>
       </c>
@@ -9456,7 +9783,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
@@ -9472,7 +9799,7 @@
         <v>25947</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="C57" s="2" t="s">
         <v>5</v>
       </c>
@@ -9482,7 +9809,7 @@
         <v>23055</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="C58" s="2" t="s">
         <v>6</v>
       </c>
@@ -9492,7 +9819,7 @@
         <v>22734</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="C59" s="2" t="s">
         <v>7</v>
       </c>
@@ -9502,7 +9829,7 @@
         <v>21662</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
@@ -9512,7 +9839,7 @@
         <v>19240</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12">
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
@@ -9522,7 +9849,7 @@
         <v>16811</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="C62" s="2" t="s">
         <v>10</v>
       </c>
@@ -9532,7 +9859,7 @@
         <v>15492</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
@@ -9542,7 +9869,7 @@
         <v>13794</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="C64" s="2" t="s">
         <v>12</v>
       </c>
@@ -9552,7 +9879,7 @@
         <v>13009</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6">
       <c r="C65" s="2" t="s">
         <v>13</v>
       </c>
@@ -9562,7 +9889,7 @@
         <v>11894</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:6">
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
@@ -9572,7 +9899,7 @@
         <v>11417</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6">
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
@@ -9582,7 +9909,7 @@
         <v>10391</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:6">
       <c r="C68" s="2" t="s">
         <v>16</v>
       </c>
@@ -9592,7 +9919,7 @@
         <v>9961</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:6">
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
@@ -9602,7 +9929,7 @@
         <v>9985</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:6">
       <c r="C70" s="2" t="s">
         <v>18</v>
       </c>
@@ -9612,7 +9939,7 @@
         <v>9960</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:6">
       <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
@@ -9622,7 +9949,7 @@
         <v>9584</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:6">
       <c r="C72" s="2" t="s">
         <v>20</v>
       </c>
@@ -9632,7 +9959,7 @@
         <v>9087</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:6">
       <c r="C73" s="2" t="s">
         <v>21</v>
       </c>
@@ -9642,7 +9969,7 @@
         <v>8460</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:6">
       <c r="C74" s="2" t="s">
         <v>22</v>
       </c>
@@ -9652,7 +9979,7 @@
         <v>8183</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:6">
       <c r="C75" s="2" t="s">
         <v>23</v>
       </c>
@@ -9662,7 +9989,7 @@
         <v>7609</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:6">
       <c r="C76" s="2" t="s">
         <v>24</v>
       </c>
@@ -9672,7 +9999,7 @@
         <v>7529</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:6">
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
@@ -9682,7 +10009,7 @@
         <v>7160</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:6">
       <c r="C78" s="2" t="s">
         <v>26</v>
       </c>
@@ -9692,7 +10019,7 @@
         <v>6974</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:6">
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
@@ -9702,7 +10029,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:6">
       <c r="C80" s="2" t="s">
         <v>28</v>
       </c>
@@ -9712,7 +10039,7 @@
         <v>6450</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:6">
       <c r="C81" s="2" t="s">
         <v>29</v>
       </c>
@@ -9722,7 +10049,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:6">
       <c r="C82" s="2" t="s">
         <v>30</v>
       </c>
@@ -9732,7 +10059,7 @@
         <v>6217</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:6">
       <c r="C83" s="2" t="s">
         <v>31</v>
       </c>
@@ -9742,7 +10069,7 @@
         <v>6403</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:6">
       <c r="C84" s="2" t="s">
         <v>32</v>
       </c>
@@ -9752,7 +10079,7 @@
         <v>6632</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:6">
       <c r="C85" s="2" t="s">
         <v>33</v>
       </c>
@@ -9762,7 +10089,7 @@
         <v>6961</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:6">
       <c r="C86" s="2" t="s">
         <v>34</v>
       </c>
@@ -9772,7 +10099,7 @@
         <v>7564</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:6">
       <c r="C87" s="2" t="s">
         <v>35</v>
       </c>
@@ -9782,7 +10109,7 @@
         <v>7956</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:6">
       <c r="C88" s="2" t="s">
         <v>36</v>
       </c>
@@ -9792,7 +10119,7 @@
         <v>8214</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:6">
       <c r="C89" s="2" t="s">
         <v>37</v>
       </c>
@@ -9802,7 +10129,7 @@
         <v>8592</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:6">
       <c r="C90" s="2" t="s">
         <v>38</v>
       </c>
@@ -9812,7 +10139,7 @@
         <v>9074</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:6">
       <c r="C91" s="2" t="s">
         <v>39</v>
       </c>
@@ -9822,7 +10149,7 @@
         <v>9595</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:6">
       <c r="C92" s="2" t="s">
         <v>40</v>
       </c>
@@ -9832,7 +10159,7 @@
         <v>10432</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:6">
       <c r="C93" s="2" t="s">
         <v>41</v>
       </c>
@@ -9842,7 +10169,7 @@
         <v>10995</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:6">
       <c r="C94" s="2" t="s">
         <v>42</v>
       </c>
@@ -9852,7 +10179,7 @@
         <v>11651</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:6">
       <c r="C95" s="2" t="s">
         <v>43</v>
       </c>
@@ -9862,7 +10189,7 @@
         <v>12736</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:6">
       <c r="C96" s="2" t="s">
         <v>44</v>
       </c>
@@ -9872,7 +10199,7 @@
         <v>14401</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="C97" s="2" t="s">
         <v>45</v>
       </c>
@@ -9882,7 +10209,7 @@
         <v>17324</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="C98" s="2" t="s">
         <v>46</v>
       </c>
@@ -9892,7 +10219,7 @@
         <v>23502</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="C99" s="2" t="s">
         <v>47</v>
       </c>
@@ -9902,7 +10229,7 @@
         <v>40705</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="C100" s="2" t="s">
         <v>48</v>
       </c>
@@ -9912,7 +10239,7 @@
         <v>54923</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="C101" s="2" t="s">
         <v>49</v>
       </c>
@@ -9922,7 +10249,7 @@
         <v>61332</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="C102" s="2" t="s">
         <v>50</v>
       </c>
@@ -9932,7 +10259,7 @@
         <v>65707</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="C103" s="2" t="s">
         <v>51</v>
       </c>
@@ -9942,7 +10269,7 @@
         <v>64498</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="C104" s="2" t="s">
         <v>52</v>
       </c>
@@ -9952,7 +10279,7 @@
         <v>71699</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="C105" s="2" t="s">
         <v>53</v>
       </c>
@@ -9962,7 +10289,7 @@
         <v>73943</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="C106" s="2" t="s">
         <v>54</v>
       </c>
@@ -9972,7 +10299,7 @@
         <v>74651</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="2" t="s">
         <v>56</v>
       </c>
@@ -9988,7 +10315,7 @@
         <v>15564</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="C108" s="2" t="s">
         <v>5</v>
       </c>
@@ -9998,7 +10325,7 @@
         <v>17286</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="C109" s="2" t="s">
         <v>6</v>
       </c>
@@ -10008,7 +10335,7 @@
         <v>17334</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="C110" s="2" t="s">
         <v>7</v>
       </c>
@@ -10018,7 +10345,7 @@
         <v>16060</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
@@ -10028,7 +10355,7 @@
         <v>13436</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
@@ -10038,7 +10365,7 @@
         <v>10692</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:6">
       <c r="C113" s="2" t="s">
         <v>10</v>
       </c>
@@ -10048,7 +10375,7 @@
         <v>8827</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:6">
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
@@ -10058,7 +10385,7 @@
         <v>6963</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:6">
       <c r="C115" s="2" t="s">
         <v>12</v>
       </c>
@@ -10068,7 +10395,7 @@
         <v>5925</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:6">
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
@@ -10078,7 +10405,7 @@
         <v>4945</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:6">
       <c r="C117" s="2" t="s">
         <v>14</v>
       </c>
@@ -10088,7 +10415,7 @@
         <v>4393</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:6">
       <c r="C118" s="2" t="s">
         <v>15</v>
       </c>
@@ -10098,7 +10425,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:6">
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
@@ -10108,7 +10435,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:6">
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
@@ -10118,7 +10445,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:6">
       <c r="C121" s="2" t="s">
         <v>18</v>
       </c>
@@ -10128,7 +10455,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:6">
       <c r="C122" s="2" t="s">
         <v>19</v>
       </c>
@@ -10138,7 +10465,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:6">
       <c r="C123" s="2" t="s">
         <v>20</v>
       </c>
@@ -10148,7 +10475,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:6">
       <c r="C124" s="2" t="s">
         <v>21</v>
       </c>
@@ -10158,7 +10485,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:6">
       <c r="C125" s="2" t="s">
         <v>22</v>
       </c>
@@ -10168,7 +10495,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:6">
       <c r="C126" s="2" t="s">
         <v>23</v>
       </c>
@@ -10178,7 +10505,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:6">
       <c r="C127" s="2" t="s">
         <v>24</v>
       </c>
@@ -10188,7 +10515,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:6">
       <c r="C128" s="2" t="s">
         <v>25</v>
       </c>
@@ -10198,7 +10525,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:6">
       <c r="C129" s="2" t="s">
         <v>26</v>
       </c>
@@ -10208,7 +10535,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:6">
       <c r="C130" s="2" t="s">
         <v>27</v>
       </c>
@@ -10218,7 +10545,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:6">
       <c r="C131" s="2" t="s">
         <v>28</v>
       </c>
@@ -10228,7 +10555,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:6">
       <c r="C132" s="2" t="s">
         <v>29</v>
       </c>
@@ -10238,7 +10565,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:6">
       <c r="C133" s="2" t="s">
         <v>30</v>
       </c>
@@ -10248,7 +10575,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:6">
       <c r="C134" s="2" t="s">
         <v>31</v>
       </c>
@@ -10258,7 +10585,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:6">
       <c r="C135" s="2" t="s">
         <v>32</v>
       </c>
@@ -10268,7 +10595,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:6">
       <c r="C136" s="2" t="s">
         <v>33</v>
       </c>
@@ -10278,7 +10605,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:6">
       <c r="C137" s="2" t="s">
         <v>34</v>
       </c>
@@ -10288,7 +10615,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:6">
       <c r="C138" s="2" t="s">
         <v>35</v>
       </c>
@@ -10298,7 +10625,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:6">
       <c r="C139" s="2" t="s">
         <v>36</v>
       </c>
@@ -10308,7 +10635,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:6">
       <c r="C140" s="2" t="s">
         <v>37</v>
       </c>
@@ -10318,7 +10645,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:6">
       <c r="C141" s="2" t="s">
         <v>38</v>
       </c>
@@ -10328,7 +10655,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:6">
       <c r="C142" s="2" t="s">
         <v>39</v>
       </c>
@@ -10338,7 +10665,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:6">
       <c r="C143" s="2" t="s">
         <v>40</v>
       </c>
@@ -10348,7 +10675,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:6">
       <c r="C144" s="2" t="s">
         <v>41</v>
       </c>
@@ -10358,7 +10685,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="C145" s="2" t="s">
         <v>42</v>
       </c>
@@ -10368,7 +10695,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="C146" s="2" t="s">
         <v>43</v>
       </c>
@@ -10378,7 +10705,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6">
       <c r="C147" s="2" t="s">
         <v>44</v>
       </c>
@@ -10388,7 +10715,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6">
       <c r="C148" s="2" t="s">
         <v>45</v>
       </c>
@@ -10398,7 +10725,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6">
       <c r="C149" s="2" t="s">
         <v>46</v>
       </c>
@@ -10408,7 +10735,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6">
       <c r="C150" s="2" t="s">
         <v>47</v>
       </c>
@@ -10418,7 +10745,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6">
       <c r="C151" s="2" t="s">
         <v>48</v>
       </c>
@@ -10428,7 +10755,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6">
       <c r="C152" s="2" t="s">
         <v>49</v>
       </c>
@@ -10438,7 +10765,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6">
       <c r="C153" s="2" t="s">
         <v>50</v>
       </c>
@@ -10448,7 +10775,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6">
       <c r="C154" s="2" t="s">
         <v>51</v>
       </c>
@@ -10458,7 +10785,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6">
       <c r="C155" s="2" t="s">
         <v>52</v>
       </c>
@@ -10468,7 +10795,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6">
       <c r="C156" s="2" t="s">
         <v>53</v>
       </c>
@@ -10478,7 +10805,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6">
       <c r="C157" s="2" t="s">
         <v>54</v>
       </c>
@@ -10488,7 +10815,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6">
       <c r="A158" s="2" t="s">
         <v>57</v>
       </c>
@@ -10504,7 +10831,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6">
       <c r="C159" s="2" t="s">
         <v>5</v>
       </c>
@@ -10514,7 +10841,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6">
       <c r="C160" s="2" t="s">
         <v>6</v>
       </c>
@@ -10524,7 +10851,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:6">
       <c r="C161" s="2" t="s">
         <v>7</v>
       </c>
@@ -10534,7 +10861,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:6">
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
@@ -10544,7 +10871,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:6">
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
@@ -10554,7 +10881,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:6">
       <c r="C164" s="2" t="s">
         <v>10</v>
       </c>
@@ -10564,7 +10891,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:6">
       <c r="C165" s="2" t="s">
         <v>11</v>
       </c>
@@ -10574,7 +10901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:6">
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
@@ -10584,7 +10911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:6">
       <c r="C167" s="2" t="s">
         <v>13</v>
       </c>
@@ -10594,7 +10921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:6">
       <c r="C168" s="2" t="s">
         <v>14</v>
       </c>
@@ -10604,7 +10931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:6">
       <c r="C169" s="2" t="s">
         <v>15</v>
       </c>
@@ -10614,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:6">
       <c r="C170" s="2" t="s">
         <v>16</v>
       </c>
@@ -10624,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:6">
       <c r="C171" s="2" t="s">
         <v>17</v>
       </c>
@@ -10634,7 +10961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:6">
       <c r="C172" s="2" t="s">
         <v>18</v>
       </c>
@@ -10644,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:6">
       <c r="C173" s="2" t="s">
         <v>19</v>
       </c>
@@ -10654,7 +10981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:6">
       <c r="C174" s="2" t="s">
         <v>20</v>
       </c>
@@ -10664,7 +10991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:6">
       <c r="C175" s="2" t="s">
         <v>21</v>
       </c>
@@ -10674,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:6">
       <c r="C176" s="2" t="s">
         <v>22</v>
       </c>
@@ -10684,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:6">
       <c r="C177" s="2" t="s">
         <v>23</v>
       </c>
@@ -10694,7 +11021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:6">
       <c r="C178" s="2" t="s">
         <v>24</v>
       </c>
@@ -10704,7 +11031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:6">
       <c r="C179" s="2" t="s">
         <v>25</v>
       </c>
@@ -10714,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:6">
       <c r="C180" s="2" t="s">
         <v>26</v>
       </c>
@@ -10724,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:6">
       <c r="C181" s="2" t="s">
         <v>27</v>
       </c>
@@ -10734,7 +11061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:6">
       <c r="C182" s="2" t="s">
         <v>28</v>
       </c>
@@ -10744,7 +11071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:6">
       <c r="C183" s="2" t="s">
         <v>29</v>
       </c>
@@ -10754,7 +11081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:6">
       <c r="C184" s="2" t="s">
         <v>30</v>
       </c>
@@ -10764,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:6">
       <c r="C185" s="2" t="s">
         <v>31</v>
       </c>
@@ -10774,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:6">
       <c r="C186" s="2" t="s">
         <v>32</v>
       </c>
@@ -10784,7 +11111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:6">
       <c r="C187" s="2" t="s">
         <v>33</v>
       </c>
@@ -10794,7 +11121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:6">
       <c r="C188" s="2" t="s">
         <v>34</v>
       </c>
@@ -10804,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:6">
       <c r="C189" s="2" t="s">
         <v>35</v>
       </c>
@@ -10814,7 +11141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:6">
       <c r="C190" s="2" t="s">
         <v>36</v>
       </c>
@@ -10824,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:6">
       <c r="C191" s="2" t="s">
         <v>37</v>
       </c>
@@ -10834,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:6">
       <c r="C192" s="2" t="s">
         <v>38</v>
       </c>
@@ -10844,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:6">
       <c r="C193" s="2" t="s">
         <v>39</v>
       </c>
@@ -10854,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:6">
       <c r="C194" s="2" t="s">
         <v>40</v>
       </c>
@@ -10864,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:6">
       <c r="C195" s="2" t="s">
         <v>41</v>
       </c>
@@ -10874,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:6">
       <c r="C196" s="2" t="s">
         <v>42</v>
       </c>
@@ -10884,7 +11211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:6">
       <c r="C197" s="2" t="s">
         <v>43</v>
       </c>
@@ -10894,7 +11221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:6">
       <c r="C198" s="2" t="s">
         <v>44</v>
       </c>
@@ -10904,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:6">
       <c r="C199" s="2" t="s">
         <v>45</v>
       </c>
@@ -10914,7 +11241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:6">
       <c r="C200" s="2" t="s">
         <v>46</v>
       </c>
@@ -10924,7 +11251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:6">
       <c r="C201" s="2" t="s">
         <v>47</v>
       </c>
@@ -10934,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:6">
       <c r="C202" s="2" t="s">
         <v>48</v>
       </c>
@@ -10944,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:6">
       <c r="C203" s="2" t="s">
         <v>49</v>
       </c>
@@ -10954,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:6">
       <c r="C204" s="2" t="s">
         <v>50</v>
       </c>
@@ -10964,7 +11291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:6">
       <c r="C205" s="2" t="s">
         <v>51</v>
       </c>
@@ -10974,7 +11301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:6">
       <c r="C206" s="2" t="s">
         <v>52</v>
       </c>
@@ -10984,7 +11311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:6">
       <c r="C207" s="2" t="s">
         <v>53</v>
       </c>
@@ -10994,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:6">
       <c r="C208" s="2" t="s">
         <v>54</v>
       </c>
@@ -11004,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6">
       <c r="A209" s="2" t="s">
         <v>58</v>
       </c>
@@ -11020,7 +11347,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6">
       <c r="C210" s="2" t="s">
         <v>5</v>
       </c>
@@ -11030,7 +11357,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6">
       <c r="C211" s="2" t="s">
         <v>6</v>
       </c>
@@ -11040,7 +11367,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6">
       <c r="C212" s="2" t="s">
         <v>7</v>
       </c>
@@ -11050,7 +11377,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6">
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
@@ -11060,7 +11387,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6">
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
@@ -11070,7 +11397,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6">
       <c r="C215" s="2" t="s">
         <v>10</v>
       </c>
@@ -11080,7 +11407,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6">
       <c r="C216" s="2" t="s">
         <v>11</v>
       </c>
@@ -11090,7 +11417,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6">
       <c r="C217" s="2" t="s">
         <v>12</v>
       </c>
@@ -11100,7 +11427,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6">
       <c r="C218" s="2" t="s">
         <v>13</v>
       </c>
@@ -11110,7 +11437,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6">
       <c r="C219" s="2" t="s">
         <v>14</v>
       </c>
@@ -11120,7 +11447,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6">
       <c r="C220" s="2" t="s">
         <v>15</v>
       </c>
@@ -11130,7 +11457,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6">
       <c r="C221" s="2" t="s">
         <v>16</v>
       </c>
@@ -11140,7 +11467,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6">
       <c r="C222" s="2" t="s">
         <v>17</v>
       </c>
@@ -11150,7 +11477,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6">
       <c r="C223" s="2" t="s">
         <v>18</v>
       </c>
@@ -11160,7 +11487,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6">
       <c r="C224" s="2" t="s">
         <v>19</v>
       </c>
@@ -11170,7 +11497,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:6">
       <c r="C225" s="2" t="s">
         <v>20</v>
       </c>
@@ -11180,7 +11507,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:6">
       <c r="C226" s="2" t="s">
         <v>21</v>
       </c>
@@ -11190,7 +11517,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:6">
       <c r="C227" s="2" t="s">
         <v>22</v>
       </c>
@@ -11200,7 +11527,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:6">
       <c r="C228" s="2" t="s">
         <v>23</v>
       </c>
@@ -11210,7 +11537,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:6">
       <c r="C229" s="2" t="s">
         <v>24</v>
       </c>
@@ -11220,7 +11547,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:6">
       <c r="C230" s="2" t="s">
         <v>25</v>
       </c>
@@ -11230,7 +11557,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:6">
       <c r="C231" s="2" t="s">
         <v>26</v>
       </c>
@@ -11240,7 +11567,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:6">
       <c r="C232" s="2" t="s">
         <v>27</v>
       </c>
@@ -11250,7 +11577,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:6">
       <c r="C233" s="2" t="s">
         <v>28</v>
       </c>
@@ -11260,7 +11587,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:6">
       <c r="C234" s="2" t="s">
         <v>29</v>
       </c>
@@ -11270,7 +11597,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:6">
       <c r="C235" s="2" t="s">
         <v>30</v>
       </c>
@@ -11280,7 +11607,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:6">
       <c r="C236" s="2" t="s">
         <v>31</v>
       </c>
@@ -11290,7 +11617,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:6">
       <c r="C237" s="2" t="s">
         <v>32</v>
       </c>
@@ -11300,7 +11627,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:6">
       <c r="C238" s="2" t="s">
         <v>33</v>
       </c>
@@ -11310,7 +11637,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:6">
       <c r="C239" s="2" t="s">
         <v>34</v>
       </c>
@@ -11320,7 +11647,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:6">
       <c r="C240" s="2" t="s">
         <v>35</v>
       </c>
@@ -11330,7 +11657,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="241" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:6">
       <c r="C241" s="2" t="s">
         <v>36</v>
       </c>
@@ -11340,7 +11667,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="242" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:6">
       <c r="C242" s="2" t="s">
         <v>37</v>
       </c>
@@ -11350,7 +11677,7 @@
         <v>4739</v>
       </c>
     </row>
-    <row r="243" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:6">
       <c r="C243" s="2" t="s">
         <v>38</v>
       </c>
@@ -11360,7 +11687,7 @@
         <v>5223</v>
       </c>
     </row>
-    <row r="244" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:6">
       <c r="C244" s="2" t="s">
         <v>39</v>
       </c>
@@ -11370,7 +11697,7 @@
         <v>5728</v>
       </c>
     </row>
-    <row r="245" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:6">
       <c r="C245" s="2" t="s">
         <v>40</v>
       </c>
@@ -11380,7 +11707,7 @@
         <v>6548</v>
       </c>
     </row>
-    <row r="246" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:6">
       <c r="C246" s="2" t="s">
         <v>41</v>
       </c>
@@ -11390,7 +11717,7 @@
         <v>7223</v>
       </c>
     </row>
-    <row r="247" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:6">
       <c r="C247" s="2" t="s">
         <v>42</v>
       </c>
@@ -11400,7 +11727,7 @@
         <v>8004</v>
       </c>
     </row>
-    <row r="248" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:6">
       <c r="C248" s="2" t="s">
         <v>43</v>
       </c>
@@ -11410,7 +11737,7 @@
         <v>9253</v>
       </c>
     </row>
-    <row r="249" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:6">
       <c r="C249" s="2" t="s">
         <v>44</v>
       </c>
@@ -11420,7 +11747,7 @@
         <v>11138</v>
       </c>
     </row>
-    <row r="250" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:6">
       <c r="C250" s="2" t="s">
         <v>45</v>
       </c>
@@ -11430,7 +11757,7 @@
         <v>14232</v>
       </c>
     </row>
-    <row r="251" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:6">
       <c r="C251" s="2" t="s">
         <v>46</v>
       </c>
@@ -11440,7 +11767,7 @@
         <v>20551</v>
       </c>
     </row>
-    <row r="252" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:6">
       <c r="C252" s="2" t="s">
         <v>47</v>
       </c>
@@ -11450,7 +11777,7 @@
         <v>38969</v>
       </c>
     </row>
-    <row r="253" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:6">
       <c r="C253" s="2" t="s">
         <v>48</v>
       </c>
@@ -11460,7 +11787,7 @@
         <v>54023</v>
       </c>
     </row>
-    <row r="254" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:6">
       <c r="C254" s="2" t="s">
         <v>49</v>
       </c>
@@ -11470,7 +11797,7 @@
         <v>60686</v>
       </c>
     </row>
-    <row r="255" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:6">
       <c r="C255" s="2" t="s">
         <v>50</v>
       </c>
@@ -11480,7 +11807,7 @@
         <v>65273</v>
       </c>
     </row>
-    <row r="256" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:6">
       <c r="C256" s="2" t="s">
         <v>51</v>
       </c>
@@ -11490,7 +11817,7 @@
         <v>64112</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6">
       <c r="C257" s="2" t="s">
         <v>52</v>
       </c>
@@ -11500,7 +11827,7 @@
         <v>71292</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6">
       <c r="C258" s="2" t="s">
         <v>53</v>
       </c>
@@ -11510,7 +11837,7 @@
         <v>73572</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6">
       <c r="C259" s="2" t="s">
         <v>54</v>
       </c>
@@ -11520,7 +11847,7 @@
         <v>74255</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6">
       <c r="A260" s="2" t="s">
         <v>59</v>
       </c>
@@ -11536,7 +11863,7 @@
         <v>6874</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6">
       <c r="C261" s="2" t="s">
         <v>5</v>
       </c>
@@ -11546,7 +11873,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6">
       <c r="C262" s="2" t="s">
         <v>6</v>
       </c>
@@ -11556,7 +11883,7 @@
         <v>4168</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6">
       <c r="C263" s="2" t="s">
         <v>7</v>
       </c>
@@ -11566,7 +11893,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6">
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
@@ -11576,7 +11903,7 @@
         <v>4510</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6">
       <c r="C265" s="2" t="s">
         <v>9</v>
       </c>
@@ -11586,7 +11913,7 @@
         <v>4768</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6">
       <c r="C266" s="2" t="s">
         <v>10</v>
       </c>
@@ -11596,7 +11923,7 @@
         <v>5232</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6">
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
@@ -11606,7 +11933,7 @@
         <v>5331</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6">
       <c r="C268" s="2" t="s">
         <v>12</v>
       </c>
@@ -11616,7 +11943,7 @@
         <v>5593</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6">
       <c r="C269" s="2" t="s">
         <v>13</v>
       </c>
@@ -11626,7 +11953,7 @@
         <v>5554</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6">
       <c r="C270" s="2" t="s">
         <v>14</v>
       </c>
@@ -11636,7 +11963,7 @@
         <v>5613</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6">
       <c r="C271" s="2" t="s">
         <v>15</v>
       </c>
@@ -11646,7 +11973,7 @@
         <v>5339</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6">
       <c r="C272" s="2" t="s">
         <v>16</v>
       </c>
@@ -11656,7 +11983,7 @@
         <v>5213</v>
       </c>
     </row>
-    <row r="273" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:6">
       <c r="C273" s="2" t="s">
         <v>17</v>
       </c>
@@ -11666,7 +11993,7 @@
         <v>5266</v>
       </c>
     </row>
-    <row r="274" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:6">
       <c r="C274" s="2" t="s">
         <v>18</v>
       </c>
@@ -11676,7 +12003,7 @@
         <v>5235</v>
       </c>
     </row>
-    <row r="275" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:6">
       <c r="C275" s="2" t="s">
         <v>19</v>
       </c>
@@ -11686,7 +12013,7 @@
         <v>4954</v>
       </c>
     </row>
-    <row r="276" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:6">
       <c r="C276" s="2" t="s">
         <v>20</v>
       </c>
@@ -11696,7 +12023,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="277" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:6">
       <c r="C277" s="2" t="s">
         <v>21</v>
       </c>
@@ -11706,7 +12033,7 @@
         <v>4386</v>
       </c>
     </row>
-    <row r="278" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:6">
       <c r="C278" s="2" t="s">
         <v>22</v>
       </c>
@@ -11716,7 +12043,7 @@
         <v>4283</v>
       </c>
     </row>
-    <row r="279" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:6">
       <c r="C279" s="2" t="s">
         <v>23</v>
       </c>
@@ -11726,7 +12053,7 @@
         <v>3955</v>
       </c>
     </row>
-    <row r="280" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:6">
       <c r="C280" s="2" t="s">
         <v>24</v>
       </c>
@@ -11736,7 +12063,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="281" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:6">
       <c r="C281" s="2" t="s">
         <v>25</v>
       </c>
@@ -11746,7 +12073,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="282" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:6">
       <c r="C282" s="2" t="s">
         <v>26</v>
       </c>
@@ -11756,7 +12083,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="283" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:6">
       <c r="C283" s="2" t="s">
         <v>27</v>
       </c>
@@ -11766,7 +12093,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="284" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:6">
       <c r="C284" s="2" t="s">
         <v>28</v>
       </c>
@@ -11776,7 +12103,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="285" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:6">
       <c r="C285" s="2" t="s">
         <v>29</v>
       </c>
@@ -11786,7 +12113,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="286" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:6">
       <c r="C286" s="2" t="s">
         <v>30</v>
       </c>
@@ -11796,7 +12123,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="287" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:6">
       <c r="C287" s="2" t="s">
         <v>31</v>
       </c>
@@ -11806,7 +12133,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="288" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:6">
       <c r="C288" s="2" t="s">
         <v>32</v>
       </c>
@@ -11816,7 +12143,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="289" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:6">
       <c r="C289" s="2" t="s">
         <v>33</v>
       </c>
@@ -11826,7 +12153,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="290" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:6">
       <c r="C290" s="2" t="s">
         <v>34</v>
       </c>
@@ -11836,7 +12163,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="291" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:6">
       <c r="C291" s="2" t="s">
         <v>35</v>
       </c>
@@ -11846,7 +12173,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="292" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:6">
       <c r="C292" s="2" t="s">
         <v>36</v>
       </c>
@@ -11856,7 +12183,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="293" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:6">
       <c r="C293" s="2" t="s">
         <v>37</v>
       </c>
@@ -11866,7 +12193,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="294" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:6">
       <c r="C294" s="2" t="s">
         <v>38</v>
       </c>
@@ -11876,7 +12203,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="295" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:6">
       <c r="C295" s="2" t="s">
         <v>39</v>
       </c>
@@ -11886,7 +12213,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="296" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:6">
       <c r="C296" s="2" t="s">
         <v>40</v>
       </c>
@@ -11896,7 +12223,7 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="297" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:6">
       <c r="C297" s="2" t="s">
         <v>41</v>
       </c>
@@ -11906,7 +12233,7 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="298" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:6">
       <c r="C298" s="2" t="s">
         <v>42</v>
       </c>
@@ -11916,7 +12243,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="299" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:6">
       <c r="C299" s="2" t="s">
         <v>43</v>
       </c>
@@ -11926,7 +12253,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="300" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:6">
       <c r="C300" s="2" t="s">
         <v>44</v>
       </c>
@@ -11936,7 +12263,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="301" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:6">
       <c r="C301" s="2" t="s">
         <v>45</v>
       </c>
@@ -11946,7 +12273,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="302" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:6">
       <c r="C302" s="2" t="s">
         <v>46</v>
       </c>
@@ -11956,7 +12283,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="303" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:6">
       <c r="C303" s="2" t="s">
         <v>47</v>
       </c>
@@ -11966,7 +12293,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="304" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:6">
       <c r="C304" s="2" t="s">
         <v>48</v>
       </c>
@@ -11976,7 +12303,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6">
       <c r="C305" s="2" t="s">
         <v>49</v>
       </c>
@@ -11986,7 +12313,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6">
       <c r="C306" s="2" t="s">
         <v>50</v>
       </c>
@@ -11996,7 +12323,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6">
       <c r="C307" s="2" t="s">
         <v>51</v>
       </c>
@@ -12006,7 +12333,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6">
       <c r="C308" s="2" t="s">
         <v>52</v>
       </c>
@@ -12016,7 +12343,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6">
       <c r="C309" s="2" t="s">
         <v>53</v>
       </c>
@@ -12026,7 +12353,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6">
       <c r="C310" s="2" t="s">
         <v>54</v>
       </c>
@@ -12036,122 +12363,122 @@
         <v>289</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" ht="144">
       <c r="A312" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="32">
       <c r="A313" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="80">
       <c r="A314" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6">
       <c r="A316" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6">
       <c r="A318" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6">
       <c r="A319" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6">
       <c r="A320" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1">
       <c r="A337" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1">
       <c r="A338" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1">
       <c r="A339" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1">
       <c r="A346" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1">
       <c r="A349" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1">
       <c r="A350" t="s">
         <v>79</v>
       </c>
@@ -12167,11 +12494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446C12A0-C80E-B64C-BEF9-F9B58C29F90E}">
   <dimension ref="A1:M350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5:M55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
@@ -12183,7 +12510,7 @@
     <col min="12" max="12" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12191,12 +12518,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="D4" s="2" t="s">
         <v>81</v>
       </c>
@@ -12225,7 +12552,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -12269,7 +12596,7 @@
         <v>0.62663951401353035</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -12310,7 +12637,7 @@
         <v>0.62954259614748131</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -12351,7 +12678,7 @@
         <v>0.64597380705394192</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -12392,7 +12719,7 @@
         <v>0.68066732697783827</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -12433,7 +12760,7 @@
         <v>0.72610705233338302</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
@@ -12474,7 +12801,7 @@
         <v>0.75079492437074669</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
@@ -12515,7 +12842,7 @@
         <v>0.76870807059975244</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
@@ -12556,7 +12883,7 @@
         <v>0.78955137481910276</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
@@ -12597,7 +12924,7 @@
         <v>0.79538180155464111</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
@@ -12638,7 +12965,7 @@
         <v>0.80435986360854494</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
@@ -12679,7 +13006,7 @@
         <v>0.81280344216065348</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
@@ -12720,7 +13047,7 @@
         <v>0.81985563983361887</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:13">
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
@@ -12761,7 +13088,7 @@
         <v>0.82396811497931699</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13">
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
@@ -12802,7 +13129,7 @@
         <v>0.83158325777296793</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13">
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
@@ -12843,7 +13170,7 @@
         <v>0.83883627676819383</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:13">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
@@ -12884,7 +13211,7 @@
         <v>0.84679914160697867</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13">
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
@@ -12925,7 +13252,7 @@
         <v>0.85639553066272422</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13">
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
@@ -12966,7 +13293,7 @@
         <v>0.86293374006394274</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13">
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
@@ -13007,7 +13334,7 @@
         <v>0.86821866555809613</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13">
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
@@ -13048,7 +13375,7 @@
         <v>0.87755952380952384</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13">
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
@@ -13089,7 +13416,7 @@
         <v>0.88261493393914037</v>
       </c>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:13">
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
@@ -13130,7 +13457,7 @@
         <v>0.89120649583713341</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13">
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
@@ -13171,7 +13498,7 @@
         <v>0.89660144181256429</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13">
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
@@ -13212,7 +13539,7 @@
         <v>0.89837202291227003</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:13">
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
@@ -13253,7 +13580,7 @@
         <v>0.90039379922490315</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13">
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
@@ -13294,7 +13621,7 @@
         <v>0.89967133713890335</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:13">
       <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
@@ -13335,7 +13662,7 @@
         <v>0.8994721368435119</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:13">
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
@@ -13376,7 +13703,7 @@
         <v>0.90212902193052669</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:13">
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
@@ -13417,7 +13744,7 @@
         <v>0.9007012970893068</v>
       </c>
     </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:13">
       <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
@@ -13458,7 +13785,7 @@
         <v>0.89815635796618465</v>
       </c>
     </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:13">
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
@@ -13499,7 +13826,7 @@
         <v>0.89783193991781207</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:13">
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
@@ -13540,7 +13867,7 @@
         <v>0.89741883611965945</v>
       </c>
     </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:13">
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
@@ -13581,7 +13908,7 @@
         <v>0.89360178477979457</v>
       </c>
     </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:13">
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
@@ -13622,7 +13949,7 @@
         <v>0.89142355779776261</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:13">
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
@@ -13663,7 +13990,7 @@
         <v>0.88613461227569112</v>
       </c>
     </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:13">
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
@@ -13704,7 +14031,7 @@
         <v>0.88374076937431689</v>
       </c>
     </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:13">
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
@@ -13745,7 +14072,7 @@
         <v>0.87216400172860853</v>
       </c>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:13">
       <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
@@ -13786,7 +14113,7 @@
         <v>0.86683614138518539</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:13">
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
@@ -13827,7 +14154,7 @@
         <v>0.85541777224237836</v>
       </c>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:13">
       <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
@@ -13868,7 +14195,7 @@
         <v>0.84103628074581638</v>
       </c>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:13">
       <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
@@ -13909,7 +14236,7 @@
         <v>0.81132714394559358</v>
       </c>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:13">
       <c r="C46" s="2" t="s">
         <v>45</v>
       </c>
@@ -13950,7 +14277,7 @@
         <v>0.78002007215124636</v>
       </c>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:13">
       <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
@@ -13991,7 +14318,7 @@
         <v>0.70140211640211636</v>
       </c>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:13">
       <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
@@ -14032,7 +14359,7 @@
         <v>0.45760721624723122</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
@@ -14073,7 +14400,7 @@
         <v>0.25098204634731486</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
@@ -14113,7 +14440,7 @@
         <v>0.13579511614055986</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
@@ -14153,7 +14480,7 @@
         <v>9.7568685298843605E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="C52" s="2" t="s">
         <v>51</v>
       </c>
@@ -14193,7 +14520,7 @@
         <v>7.9125270273968859E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
@@ -14233,7 +14560,7 @@
         <v>1.136996103999364E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="C54" s="2" t="s">
         <v>53</v>
       </c>
@@ -14273,7 +14600,7 @@
         <v>3.5860787905368798E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="C55" s="2" t="s">
         <v>54</v>
       </c>
@@ -14313,1407 +14640,1407 @@
         <v>2.2356587571769728E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:5">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:5">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:5">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:5">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:5">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:5">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:5">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:5">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:5">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:5">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:5">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:5">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:5">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:5">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:5">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:5">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:5">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:5">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:5">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:5">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:5">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:5">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:5">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:5">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:5">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:5">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:5">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:5">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:5">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:5">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:5">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:5">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="3"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="3"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="3"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="3"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="3"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="3"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="3"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="3"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="3"/>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:5">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="3"/>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:5">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="3"/>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:5">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="3"/>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:5">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="3"/>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:5">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="3"/>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:5">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="3"/>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:5">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="3"/>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:5">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="3"/>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:5">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="3"/>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:5">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="3"/>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:5">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="3"/>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:5">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="3"/>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:5">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="3"/>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:5">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="3"/>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:5">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="3"/>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:5">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="3"/>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:5">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="3"/>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:5">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="3"/>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:5">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="3"/>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:5">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="3"/>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:5">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="3"/>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:5">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="3"/>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:5">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="3"/>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:5">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="3"/>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:5">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="3"/>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:5">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="3"/>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:5">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="3"/>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:5">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:5">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:5">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:5">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:5">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="3"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="3"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="3"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="3"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="3"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="3"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="3"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="3"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="3"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="3"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="3"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:5">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:5">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:5">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:5">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:5">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="3"/>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:5">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:5">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="3"/>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:5">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="3"/>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:5">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="3"/>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:5">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="3"/>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:5">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="3"/>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:5">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="3"/>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:5">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="3"/>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:5">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="3"/>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:5">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="3"/>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:5">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="3"/>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:5">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="3"/>
     </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:5">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:5">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="3"/>
     </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:5">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="3"/>
     </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:5">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="3"/>
     </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:5">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:5">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="3"/>
     </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:5">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="3"/>
     </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:5">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="3"/>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:5">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="3"/>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:5">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="3"/>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:5">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="3"/>
     </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:5">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="3"/>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:5">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:5">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="3"/>
     </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:5">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="3"/>
     </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:5">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="3"/>
     </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:5">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="3"/>
     </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:5">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="3"/>
     </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:5">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="3"/>
     </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:5">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="3"/>
     </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:5">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="3"/>
     </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:5">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="3"/>
     </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:5">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="3"/>
     </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:5">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="3"/>
     </row>
-    <row r="202" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:5">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="3"/>
     </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:5">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="3"/>
     </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:5">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="3"/>
     </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:5">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="3"/>
     </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:5">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="3"/>
     </row>
-    <row r="207" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:5">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="3"/>
     </row>
-    <row r="208" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:5">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="3"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="3"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="3"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="3"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="3"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="3"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="3"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="3"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="3"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="3"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="3"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="3"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="3"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="3"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="3"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="3"/>
     </row>
-    <row r="225" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:5">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="3"/>
     </row>
-    <row r="226" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:5">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="3"/>
     </row>
-    <row r="227" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:5">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="3"/>
     </row>
-    <row r="228" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:5">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="3"/>
     </row>
-    <row r="229" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:5">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="3"/>
     </row>
-    <row r="230" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:5">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="3"/>
     </row>
-    <row r="231" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:5">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="3"/>
     </row>
-    <row r="232" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:5">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="3"/>
     </row>
-    <row r="233" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:5">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="3"/>
     </row>
-    <row r="234" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:5">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="3"/>
     </row>
-    <row r="235" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:5">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="3"/>
     </row>
-    <row r="236" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:5">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="3"/>
     </row>
-    <row r="237" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:5">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="3"/>
     </row>
-    <row r="238" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:5">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="3"/>
     </row>
-    <row r="239" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:5">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="3"/>
     </row>
-    <row r="240" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:5">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="3"/>
     </row>
-    <row r="241" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:5">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="3"/>
     </row>
-    <row r="242" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:5">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:5">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:5">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="3"/>
     </row>
-    <row r="245" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:5">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:5">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:5">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:5">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:5">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:5">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:5">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="3"/>
     </row>
-    <row r="252" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:5">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="3"/>
     </row>
-    <row r="253" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:5">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:5">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="3"/>
     </row>
-    <row r="255" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:5">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:5">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="3"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="3"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="3"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="3"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="3"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="3"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="3"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="3"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="3"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="3"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="3"/>
     </row>
-    <row r="273" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:5">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:5">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:5">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="3"/>
     </row>
-    <row r="276" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:5">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="3"/>
     </row>
-    <row r="277" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:5">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="3"/>
     </row>
-    <row r="278" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:5">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="3"/>
     </row>
-    <row r="279" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:5">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:5">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:5">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="3"/>
     </row>
-    <row r="282" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:5">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:5">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="3"/>
     </row>
-    <row r="284" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:5">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:5">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="3"/>
     </row>
-    <row r="286" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:5">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:5">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:5">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:5">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:5">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:5">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="3"/>
     </row>
-    <row r="292" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:5">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:5">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="3"/>
     </row>
-    <row r="294" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:5">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:5">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="3"/>
     </row>
-    <row r="296" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:5">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:5">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="3"/>
     </row>
-    <row r="298" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:5">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="3"/>
     </row>
-    <row r="299" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:5">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:5">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="3"/>
     </row>
-    <row r="301" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:5">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:5">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:5">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:5">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="3"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="3"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="3"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="3"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="3"/>
     </row>
-    <row r="312" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" ht="144">
       <c r="A312" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" ht="32">
       <c r="A313" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" ht="80">
       <c r="A314" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1">
       <c r="A323" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1">
       <c r="A324" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1">
       <c r="A325" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1">
       <c r="A327" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1">
       <c r="A328" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1">
       <c r="A330" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1">
       <c r="A331" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1">
       <c r="A332" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1">
       <c r="A333" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1">
       <c r="A335" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1">
       <c r="A337" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1">
       <c r="A338" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1">
       <c r="A339" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1">
       <c r="A346" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1">
       <c r="A349" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1">
       <c r="A350" t="s">
         <v>79</v>
       </c>
@@ -15726,6 +16053,1774 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6A4992-0977-FE4C-94F9-0A14CBF3F5A5}">
+  <dimension ref="A1:J55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" s="7" t="str">
+        <f>[1]Yhteensä!C5</f>
+        <v>20</v>
+      </c>
+      <c r="D5" s="7">
+        <f>Yhteensä!J5</f>
+        <v>1.211514565787657E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" ref="E5:E45" si="0">D5</f>
+        <v>1.211514565787657E-2</v>
+      </c>
+      <c r="F5" s="14">
+        <f>Yhteensä!D5+Yhteensä!E5</f>
+        <v>0.62663951401353035</v>
+      </c>
+      <c r="G5" s="15">
+        <f>F5+MAX(0,Yhteensä!H5-Yhteensä!J5)</f>
+        <v>0.62663951401353035</v>
+      </c>
+      <c r="I5" s="7">
+        <f>MAX(0,E6-E5)/G5</f>
+        <v>4.9623180953009818E-3</v>
+      </c>
+      <c r="J5" s="7">
+        <f>alkavuus!H4</f>
+        <v>5.3265400648448355E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="7" t="str">
+        <f>[1]Yhteensä!C6</f>
+        <v>21</v>
+      </c>
+      <c r="D6" s="7">
+        <f>Yhteensä!J6</f>
+        <v>1.5224730257496525E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5224730257496525E-2</v>
+      </c>
+      <c r="F6" s="14">
+        <f>Yhteensä!D6+Yhteensä!E6</f>
+        <v>0.62954259614748131</v>
+      </c>
+      <c r="G6" s="15">
+        <f>F6+MAX(0,Yhteensä!H6-Yhteensä!J6)</f>
+        <v>0.62954259614748131</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:I54" si="1">MAX(0,E7-E6)/G6</f>
+        <v>2.8500077496787213E-3</v>
+      </c>
+      <c r="J6" s="7">
+        <f>alkavuus!H5</f>
+        <v>4.9174005270939125E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="7" t="str">
+        <f>[1]Yhteensä!C7</f>
+        <v>22</v>
+      </c>
+      <c r="D7" s="7">
+        <f>Yhteensä!J7</f>
+        <v>1.7018931535269708E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7018931535269708E-2</v>
+      </c>
+      <c r="F7" s="14">
+        <f>Yhteensä!D7+Yhteensä!E7</f>
+        <v>0.64597380705394192</v>
+      </c>
+      <c r="G7" s="15">
+        <f>F7+MAX(0,Yhteensä!H7-Yhteensä!J7)</f>
+        <v>0.64597380705394192</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>4.7030084967988797E-3</v>
+      </c>
+      <c r="J7" s="7">
+        <f>alkavuus!H6</f>
+        <v>4.5319096101316117E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" s="7" t="str">
+        <f>[1]Yhteensä!C8</f>
+        <v>23</v>
+      </c>
+      <c r="D8" s="7">
+        <f>Yhteensä!J8</f>
+        <v>2.0056951838553917E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0056951838553917E-2</v>
+      </c>
+      <c r="F8" s="14">
+        <f>Yhteensä!D8+Yhteensä!E8</f>
+        <v>0.68066732697783827</v>
+      </c>
+      <c r="G8" s="15">
+        <f>F8+MAX(0,Yhteensä!H8-Yhteensä!J8)</f>
+        <v>0.68066732697783827</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <f>alkavuus!H7</f>
+        <v>3.7995512341062079E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="C9" s="7" t="str">
+        <f>[1]Yhteensä!C9</f>
+        <v>24</v>
+      </c>
+      <c r="D9" s="7">
+        <f>Yhteensä!J9</f>
+        <v>1.962129118831072E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.962129118831072E-2</v>
+      </c>
+      <c r="F9" s="14">
+        <f>Yhteensä!D9+Yhteensä!E9</f>
+        <v>0.72610705233338302</v>
+      </c>
+      <c r="G9" s="15">
+        <f>F9+MAX(0,Yhteensä!H9-Yhteensä!J9)</f>
+        <v>0.72610705233338302</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>1.6257493194578451E-3</v>
+      </c>
+      <c r="J9" s="7">
+        <f>alkavuus!H8</f>
+        <v>3.253733077682877E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="7" t="str">
+        <f>[1]Yhteensä!C10</f>
+        <v>25</v>
+      </c>
+      <c r="D10" s="7">
+        <f>Yhteensä!J10</f>
+        <v>2.080175923449526E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>2.080175923449526E-2</v>
+      </c>
+      <c r="F10" s="14">
+        <f>Yhteensä!D10+Yhteensä!E10</f>
+        <v>0.75079492437074669</v>
+      </c>
+      <c r="G10" s="15">
+        <f>F10+MAX(0,Yhteensä!H10-Yhteensä!J10)</f>
+        <v>0.75079492437074669</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>9.4087410427955685E-4</v>
+      </c>
+      <c r="J10" s="7">
+        <f>alkavuus!H9</f>
+        <v>3.0923068030749667E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="C11" s="7" t="str">
+        <f>[1]Yhteensä!C11</f>
+        <v>26</v>
+      </c>
+      <c r="D11" s="7">
+        <f>Yhteensä!J11</f>
+        <v>2.1508162736460223E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1508162736460223E-2</v>
+      </c>
+      <c r="F11" s="14">
+        <f>Yhteensä!D11+Yhteensä!E11</f>
+        <v>0.76870807059975244</v>
+      </c>
+      <c r="G11" s="15">
+        <f>F11+MAX(0,Yhteensä!H11-Yhteensä!J11)</f>
+        <v>0.76870807059975244</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0502323301235365E-3</v>
+      </c>
+      <c r="J11" s="7">
+        <f>alkavuus!H10</f>
+        <v>2.8225918034147828E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="7" t="str">
+        <f>[1]Yhteensä!C12</f>
+        <v>27</v>
+      </c>
+      <c r="D12" s="7">
+        <f>Yhteensä!J12</f>
+        <v>2.231548480463097E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.231548480463097E-2</v>
+      </c>
+      <c r="F12" s="14">
+        <f>Yhteensä!D12+Yhteensä!E12</f>
+        <v>0.78955137481910276</v>
+      </c>
+      <c r="G12" s="15">
+        <f>F12+MAX(0,Yhteensä!H12-Yhteensä!J12)</f>
+        <v>0.78955137481910276</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <f>alkavuus!H11</f>
+        <v>3.3097722427914283E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="7" t="str">
+        <f>[1]Yhteensä!C13</f>
+        <v>28</v>
+      </c>
+      <c r="D13" s="7">
+        <f>Yhteensä!J13</f>
+        <v>2.2090763603109281E-2</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2090763603109281E-2</v>
+      </c>
+      <c r="F13" s="14">
+        <f>Yhteensä!D13+Yhteensä!E13</f>
+        <v>0.79538180155464111</v>
+      </c>
+      <c r="G13" s="15">
+        <f>F13+MAX(0,Yhteensä!H13-Yhteensä!J13)</f>
+        <v>0.79538180155464111</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f>alkavuus!H12</f>
+        <v>2.4822792840003311E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" s="7" t="str">
+        <f>[1]Yhteensä!C14</f>
+        <v>29</v>
+      </c>
+      <c r="D14" s="7">
+        <f>Yhteensä!J14</f>
+        <v>2.1391309416256228E-2</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1391309416256228E-2</v>
+      </c>
+      <c r="F14" s="14">
+        <f>Yhteensä!D14+Yhteensä!E14</f>
+        <v>0.80435986360854494</v>
+      </c>
+      <c r="G14" s="15">
+        <f>F14+MAX(0,Yhteensä!H14-Yhteensä!J14)</f>
+        <v>0.80435986360854494</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="1"/>
+        <v>4.3485212941980504E-5</v>
+      </c>
+      <c r="J14" s="7">
+        <f>alkavuus!H13</f>
+        <v>2.615886588658866E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" s="7" t="str">
+        <f>[1]Yhteensä!C15</f>
+        <v>30</v>
+      </c>
+      <c r="D15" s="7">
+        <f>Yhteensä!J15</f>
+        <v>2.1426287176207228E-2</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1426287176207228E-2</v>
+      </c>
+      <c r="F15" s="14">
+        <f>Yhteensä!D15+Yhteensä!E15</f>
+        <v>0.81280344216065348</v>
+      </c>
+      <c r="G15" s="15">
+        <f>F15+MAX(0,Yhteensä!H15-Yhteensä!J15)</f>
+        <v>0.81280344216065348</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>3.5162608815876807E-3</v>
+      </c>
+      <c r="J15" s="7">
+        <f>alkavuus!H14</f>
+        <v>2.4165449027762167E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" s="7" t="str">
+        <f>[1]Yhteensä!C16</f>
+        <v>31</v>
+      </c>
+      <c r="D16" s="7">
+        <f>Yhteensä!J16</f>
+        <v>2.4284316124296549E-2</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4284316124296549E-2</v>
+      </c>
+      <c r="F16" s="14">
+        <f>Yhteensä!D16+Yhteensä!E16</f>
+        <v>0.81985563983361887</v>
+      </c>
+      <c r="G16" s="15">
+        <f>F16+MAX(0,Yhteensä!H16-Yhteensä!J16)</f>
+        <v>0.81985563983361887</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>alkavuus!H15</f>
+        <v>3.5462032179596143E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="7" t="str">
+        <f>[1]Yhteensä!C17</f>
+        <v>32</v>
+      </c>
+      <c r="D17" s="7">
+        <f>Yhteensä!J17</f>
+        <v>2.4004347957365862E-2</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4004347957365862E-2</v>
+      </c>
+      <c r="F17" s="14">
+        <f>Yhteensä!D17+Yhteensä!E17</f>
+        <v>0.82396811497931699</v>
+      </c>
+      <c r="G17" s="15">
+        <f>F17+MAX(0,Yhteensä!H17-Yhteensä!J17)</f>
+        <v>0.82396811497931699</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="1"/>
+        <v>8.2190081662750696E-5</v>
+      </c>
+      <c r="J17" s="7">
+        <f>alkavuus!H16</f>
+        <v>2.6652760878382292E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="7" t="str">
+        <f>[1]Yhteensä!C18</f>
+        <v>33</v>
+      </c>
+      <c r="D18" s="7">
+        <f>Yhteensä!J18</f>
+        <v>2.4072069964023515E-2</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4072069964023515E-2</v>
+      </c>
+      <c r="F18" s="14">
+        <f>Yhteensä!D18+Yhteensä!E18</f>
+        <v>0.83158325777296793</v>
+      </c>
+      <c r="G18" s="15">
+        <f>F18+MAX(0,Yhteensä!H18-Yhteensä!J18)</f>
+        <v>0.83158325777296793</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="1"/>
+        <v>2.2760469933652485E-3</v>
+      </c>
+      <c r="J18" s="7">
+        <f>alkavuus!H17</f>
+        <v>3.0951041080472708E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="7" t="str">
+        <f>[1]Yhteensä!C19</f>
+        <v>34</v>
+      </c>
+      <c r="D19" s="7">
+        <f>Yhteensä!J19</f>
+        <v>2.5964792537610557E-2</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5964792537610557E-2</v>
+      </c>
+      <c r="F19" s="14">
+        <f>Yhteensä!D19+Yhteensä!E19</f>
+        <v>0.83883627676819383</v>
+      </c>
+      <c r="G19" s="15">
+        <f>F19+MAX(0,Yhteensä!H19-Yhteensä!J19)</f>
+        <v>0.83883627676819383</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="1"/>
+        <v>4.4378871432492525E-4</v>
+      </c>
+      <c r="J19" s="7">
+        <f>alkavuus!H18</f>
+        <v>3.129632679953879E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
+      <c r="C20" s="7" t="str">
+        <f>[1]Yhteensä!C20</f>
+        <v>35</v>
+      </c>
+      <c r="D20" s="7">
+        <f>Yhteensä!J20</f>
+        <v>2.6337058610406621E-2</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6337058610406621E-2</v>
+      </c>
+      <c r="F20" s="14">
+        <f>Yhteensä!D20+Yhteensä!E20</f>
+        <v>0.84679914160697867</v>
+      </c>
+      <c r="G20" s="15">
+        <f>F20+MAX(0,Yhteensä!H20-Yhteensä!J20)</f>
+        <v>0.84679914160697867</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="1"/>
+        <v>2.4726525895241319E-3</v>
+      </c>
+      <c r="J20" s="7">
+        <f>alkavuus!H19</f>
+        <v>3.4064181243072264E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="7" t="str">
+        <f>[1]Yhteensä!C21</f>
+        <v>36</v>
+      </c>
+      <c r="D21" s="7">
+        <f>Yhteensä!J21</f>
+        <v>2.8430898700707929E-2</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8430898700707929E-2</v>
+      </c>
+      <c r="F21" s="14">
+        <f>Yhteensä!D21+Yhteensä!E21</f>
+        <v>0.85639553066272422</v>
+      </c>
+      <c r="G21" s="15">
+        <f>F21+MAX(0,Yhteensä!H21-Yhteensä!J21)</f>
+        <v>0.85639553066272422</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <f>alkavuus!H20</f>
+        <v>3.1716771937433923E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="7" t="str">
+        <f>[1]Yhteensä!C22</f>
+        <v>37</v>
+      </c>
+      <c r="D22" s="7">
+        <f>Yhteensä!J22</f>
+        <v>2.7014343120288623E-2</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7014343120288623E-2</v>
+      </c>
+      <c r="F22" s="14">
+        <f>Yhteensä!D22+Yhteensä!E22</f>
+        <v>0.86293374006394274</v>
+      </c>
+      <c r="G22" s="15">
+        <f>F22+MAX(0,Yhteensä!H22-Yhteensä!J22)</f>
+        <v>0.86293374006394274</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8663476901883908E-3</v>
+      </c>
+      <c r="J22" s="7">
+        <f>alkavuus!H21</f>
+        <v>3.3203572246393405E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="7" t="str">
+        <f>[1]Yhteensä!C23</f>
+        <v>38</v>
+      </c>
+      <c r="D23" s="7">
+        <f>Yhteensä!J23</f>
+        <v>2.8624877512842591E-2</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8624877512842591E-2</v>
+      </c>
+      <c r="F23" s="14">
+        <f>Yhteensä!D23+Yhteensä!E23</f>
+        <v>0.86821866555809613</v>
+      </c>
+      <c r="G23" s="15">
+        <f>F23+MAX(0,Yhteensä!H23-Yhteensä!J23)</f>
+        <v>0.86821866555809613</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="1"/>
+        <v>2.2694289590387286E-3</v>
+      </c>
+      <c r="J23" s="7">
+        <f>alkavuus!H22</f>
+        <v>3.3912918522776259E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="C24" s="7" t="str">
+        <f>[1]Yhteensä!C24</f>
+        <v>39</v>
+      </c>
+      <c r="D24" s="7">
+        <f>Yhteensä!J24</f>
+        <v>3.0595238095238095E-2</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0595238095238095E-2</v>
+      </c>
+      <c r="F24" s="14">
+        <f>Yhteensä!D24+Yhteensä!E24</f>
+        <v>0.87755952380952384</v>
+      </c>
+      <c r="G24" s="15">
+        <f>F24+MAX(0,Yhteensä!H24-Yhteensä!J24)</f>
+        <v>0.87755952380952384</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4805875024346995E-3</v>
+      </c>
+      <c r="J24" s="7">
+        <f>alkavuus!H23</f>
+        <v>4.0073712229794951E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="C25" s="7" t="str">
+        <f>[1]Yhteensä!C25</f>
+        <v>40</v>
+      </c>
+      <c r="D25" s="7">
+        <f>Yhteensä!J25</f>
+        <v>3.1894541758833023E-2</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1894541758833023E-2</v>
+      </c>
+      <c r="F25" s="14">
+        <f>Yhteensä!D25+Yhteensä!E25</f>
+        <v>0.88261493393914037</v>
+      </c>
+      <c r="G25" s="15">
+        <f>F25+MAX(0,Yhteensä!H25-Yhteensä!J25)</f>
+        <v>0.88261493393914037</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3957095101715079E-3</v>
+      </c>
+      <c r="J25" s="7">
+        <f>alkavuus!H24</f>
+        <v>4.3100937736618326E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="7" t="str">
+        <f>[1]Yhteensä!C26</f>
+        <v>41</v>
+      </c>
+      <c r="D26" s="7">
+        <f>Yhteensä!J26</f>
+        <v>3.3126415815951278E-2</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3126415815951278E-2</v>
+      </c>
+      <c r="F26" s="14">
+        <f>Yhteensä!D26+Yhteensä!E26</f>
+        <v>0.89120649583713341</v>
+      </c>
+      <c r="G26" s="15">
+        <f>F26+MAX(0,Yhteensä!H26-Yhteensä!J26)</f>
+        <v>0.89120649583713341</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1856681670651681E-3</v>
+      </c>
+      <c r="J26" s="7">
+        <f>alkavuus!H25</f>
+        <v>4.3857101365088582E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="7" t="str">
+        <f>[1]Yhteensä!C27</f>
+        <v>42</v>
+      </c>
+      <c r="D27" s="7">
+        <f>Yhteensä!J27</f>
+        <v>3.5074297484184197E-2</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="0"/>
+        <v>3.5074297484184197E-2</v>
+      </c>
+      <c r="F27" s="14">
+        <f>Yhteensä!D27+Yhteensä!E27</f>
+        <v>0.89660144181256429</v>
+      </c>
+      <c r="G27" s="15">
+        <f>F27+MAX(0,Yhteensä!H27-Yhteensä!J27)</f>
+        <v>0.89660144181256429</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="1"/>
+        <v>2.003530996873362E-3</v>
+      </c>
+      <c r="J27" s="7">
+        <f>alkavuus!H26</f>
+        <v>4.2673432904676775E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="7" t="str">
+        <f>[1]Yhteensä!C28</f>
+        <v>43</v>
+      </c>
+      <c r="D28" s="7">
+        <f>Yhteensä!J28</f>
+        <v>3.6870666264697018E-2</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="0"/>
+        <v>3.6870666264697018E-2</v>
+      </c>
+      <c r="F28" s="14">
+        <f>Yhteensä!D28+Yhteensä!E28</f>
+        <v>0.89837202291227003</v>
+      </c>
+      <c r="G28" s="15">
+        <f>F28+MAX(0,Yhteensä!H28-Yhteensä!J28)</f>
+        <v>0.89837202291227003</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>3.6628521482732859E-3</v>
+      </c>
+      <c r="J28" s="7">
+        <f>alkavuus!H27</f>
+        <v>4.8893994285882595E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="7" t="str">
+        <f>[1]Yhteensä!C29</f>
+        <v>44</v>
+      </c>
+      <c r="D29" s="7">
+        <f>Yhteensä!J29</f>
+        <v>4.0161270158769843E-2</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0161270158769843E-2</v>
+      </c>
+      <c r="F29" s="14">
+        <f>Yhteensä!D29+Yhteensä!E29</f>
+        <v>0.90039379922490315</v>
+      </c>
+      <c r="G29" s="15">
+        <f>F29+MAX(0,Yhteensä!H29-Yhteensä!J29)</f>
+        <v>0.90039379922490315</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="1"/>
+        <v>3.2713006057966568E-3</v>
+      </c>
+      <c r="J29" s="7">
+        <f>alkavuus!H28</f>
+        <v>5.0437016384198494E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="7" t="str">
+        <f>[1]Yhteensä!C30</f>
+        <v>45</v>
+      </c>
+      <c r="D30" s="7">
+        <f>Yhteensä!J30</f>
+        <v>4.3106728939629822E-2</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3106728939629822E-2</v>
+      </c>
+      <c r="F30" s="14">
+        <f>Yhteensä!D30+Yhteensä!E30</f>
+        <v>0.89967133713890335</v>
+      </c>
+      <c r="G30" s="15">
+        <f>F30+MAX(0,Yhteensä!H30-Yhteensä!J30)</f>
+        <v>0.89967133713890335</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="1"/>
+        <v>3.6291553940261136E-3</v>
+      </c>
+      <c r="J30" s="7">
+        <f>alkavuus!H29</f>
+        <v>5.7934249768605804E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="C31" s="7" t="str">
+        <f>[1]Yhteensä!C31</f>
+        <v>46</v>
+      </c>
+      <c r="D31" s="7">
+        <f>Yhteensä!J31</f>
+        <v>4.637177602565816E-2</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
+        <v>4.637177602565816E-2</v>
+      </c>
+      <c r="F31" s="14">
+        <f>Yhteensä!D31+Yhteensä!E31</f>
+        <v>0.8994721368435119</v>
+      </c>
+      <c r="G31" s="15">
+        <f>F31+MAX(0,Yhteensä!H31-Yhteensä!J31)</f>
+        <v>0.8994721368435119</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="1"/>
+        <v>2.6900709391356544E-3</v>
+      </c>
+      <c r="J31" s="7">
+        <f>alkavuus!H30</f>
+        <v>5.5694513923628484E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
+      <c r="C32" s="7" t="str">
+        <f>[1]Yhteensä!C32</f>
+        <v>47</v>
+      </c>
+      <c r="D32" s="7">
+        <f>Yhteensä!J32</f>
+        <v>4.879141988154314E-2</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="0"/>
+        <v>4.879141988154314E-2</v>
+      </c>
+      <c r="F32" s="14">
+        <f>Yhteensä!D32+Yhteensä!E32</f>
+        <v>0.90212902193052669</v>
+      </c>
+      <c r="G32" s="15">
+        <f>F32+MAX(0,Yhteensä!H32-Yhteensä!J32)</f>
+        <v>0.90212902193052669</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9779741218921817E-3</v>
+      </c>
+      <c r="J32" s="7">
+        <f>alkavuus!H31</f>
+        <v>6.2984336356141793E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="7" t="str">
+        <f>[1]Yhteensä!C33</f>
+        <v>48</v>
+      </c>
+      <c r="D33" s="7">
+        <f>Yhteensä!J33</f>
+        <v>5.238006578539068E-2</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="0"/>
+        <v>5.238006578539068E-2</v>
+      </c>
+      <c r="F33" s="14">
+        <f>Yhteensä!D33+Yhteensä!E33</f>
+        <v>0.9007012970893068</v>
+      </c>
+      <c r="G33" s="15">
+        <f>F33+MAX(0,Yhteensä!H33-Yhteensä!J33)</f>
+        <v>0.9007012970893068</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="1"/>
+        <v>5.0512233810107192E-3</v>
+      </c>
+      <c r="J33" s="7">
+        <f>alkavuus!H32</f>
+        <v>6.3630812739017256E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" s="7" t="str">
+        <f>[1]Yhteensä!C34</f>
+        <v>49</v>
+      </c>
+      <c r="D34" s="7">
+        <f>Yhteensä!J34</f>
+        <v>5.6929709236554868E-2</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6929709236554868E-2</v>
+      </c>
+      <c r="F34" s="14">
+        <f>Yhteensä!D34+Yhteensä!E34</f>
+        <v>0.89815635796618465</v>
+      </c>
+      <c r="G34" s="15">
+        <f>F34+MAX(0,Yhteensä!H34-Yhteensä!J34)</f>
+        <v>0.89815635796618465</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="1"/>
+        <v>3.0366303347500573E-3</v>
+      </c>
+      <c r="J34" s="7">
+        <f>alkavuus!H33</f>
+        <v>7.0433606892431532E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="7" t="str">
+        <f>[1]Yhteensä!C35</f>
+        <v>50</v>
+      </c>
+      <c r="D35" s="7">
+        <f>Yhteensä!J35</f>
+        <v>5.9657078078503616E-2</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="0"/>
+        <v>5.9657078078503616E-2</v>
+      </c>
+      <c r="F35" s="14">
+        <f>Yhteensä!D35+Yhteensä!E35</f>
+        <v>0.89783193991781207</v>
+      </c>
+      <c r="G35" s="15">
+        <f>F35+MAX(0,Yhteensä!H35-Yhteensä!J35)</f>
+        <v>0.89783193991781207</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="1"/>
+        <v>8.09750674982938E-3</v>
+      </c>
+      <c r="J35" s="7">
+        <f>alkavuus!H34</f>
+        <v>9.3898113095060663E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" s="7" t="str">
+        <f>[1]Yhteensä!C36</f>
+        <v>51</v>
+      </c>
+      <c r="D36" s="7">
+        <f>Yhteensä!J36</f>
+        <v>6.6927278272200505E-2</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="0"/>
+        <v>6.6927278272200505E-2</v>
+      </c>
+      <c r="F36" s="14">
+        <f>Yhteensä!D36+Yhteensä!E36</f>
+        <v>0.89741883611965945</v>
+      </c>
+      <c r="G36" s="15">
+        <f>F36+MAX(0,Yhteensä!H36-Yhteensä!J36)</f>
+        <v>0.89741883611965945</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="1"/>
+        <v>4.9127871350845781E-3</v>
+      </c>
+      <c r="J36" s="7">
+        <f>alkavuus!H35</f>
+        <v>7.4576667739010907E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="7" t="str">
+        <f>[1]Yhteensä!C37</f>
+        <v>52</v>
+      </c>
+      <c r="D37" s="7">
+        <f>Yhteensä!J37</f>
+        <v>7.1336105985071743E-2</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="0"/>
+        <v>7.1336105985071743E-2</v>
+      </c>
+      <c r="F37" s="14">
+        <f>Yhteensä!D37+Yhteensä!E37</f>
+        <v>0.89360178477979457</v>
+      </c>
+      <c r="G37" s="15">
+        <f>F37+MAX(0,Yhteensä!H37-Yhteensä!J37)</f>
+        <v>0.89360178477979457</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="1"/>
+        <v>5.0083555990203879E-3</v>
+      </c>
+      <c r="J37" s="7">
+        <f>alkavuus!H36</f>
+        <v>9.2513730212341033E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" s="7" t="str">
+        <f>[1]Yhteensä!C38</f>
+        <v>53</v>
+      </c>
+      <c r="D38" s="7">
+        <f>Yhteensä!J38</f>
+        <v>7.5811581487168239E-2</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="0"/>
+        <v>7.5811581487168239E-2</v>
+      </c>
+      <c r="F38" s="14">
+        <f>Yhteensä!D38+Yhteensä!E38</f>
+        <v>0.89142355779776261</v>
+      </c>
+      <c r="G38" s="15">
+        <f>F38+MAX(0,Yhteensä!H38-Yhteensä!J38)</f>
+        <v>0.89142355779776261</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="1"/>
+        <v>7.5361730631817916E-3</v>
+      </c>
+      <c r="J38" s="7">
+        <f>alkavuus!H37</f>
+        <v>1.115483622806758E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="C39" s="7" t="str">
+        <f>[1]Yhteensä!C39</f>
+        <v>54</v>
+      </c>
+      <c r="D39" s="7">
+        <f>Yhteensä!J39</f>
+        <v>8.2529503691329414E-2</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="0"/>
+        <v>8.2529503691329414E-2</v>
+      </c>
+      <c r="F39" s="14">
+        <f>Yhteensä!D39+Yhteensä!E39</f>
+        <v>0.88613461227569112</v>
+      </c>
+      <c r="G39" s="15">
+        <f>F39+MAX(0,Yhteensä!H39-Yhteensä!J39)</f>
+        <v>0.88613461227569112</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="1"/>
+        <v>7.6184520293896369E-3</v>
+      </c>
+      <c r="J39" s="7">
+        <f>alkavuus!H38</f>
+        <v>9.5240877618393768E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" s="7" t="str">
+        <f>[1]Yhteensä!C40</f>
+        <v>55</v>
+      </c>
+      <c r="D40" s="7">
+        <f>Yhteensä!J40</f>
+        <v>8.9280477726533553E-2</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="0"/>
+        <v>8.9280477726533553E-2</v>
+      </c>
+      <c r="F40" s="14">
+        <f>Yhteensä!D40+Yhteensä!E40</f>
+        <v>0.88374076937431689</v>
+      </c>
+      <c r="G40" s="15">
+        <f>F40+MAX(0,Yhteensä!H40-Yhteensä!J40)</f>
+        <v>0.88374076937431689</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7496524206384891E-2</v>
+      </c>
+      <c r="J40" s="7">
+        <f>alkavuus!H39</f>
+        <v>1.3689795679066632E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" s="7" t="str">
+        <f>[1]Yhteensä!C41</f>
+        <v>56</v>
+      </c>
+      <c r="D41" s="7">
+        <f>Yhteensä!J41</f>
+        <v>0.10474286949006049</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10474286949006049</v>
+      </c>
+      <c r="F41" s="14">
+        <f>Yhteensä!D41+Yhteensä!E41</f>
+        <v>0.87216400172860853</v>
+      </c>
+      <c r="G41" s="15">
+        <f>F41+MAX(0,Yhteensä!H41-Yhteensä!J41)</f>
+        <v>0.87216400172860853</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2431715094054616E-2</v>
+      </c>
+      <c r="J41" s="7">
+        <f>alkavuus!H40</f>
+        <v>1.4658422560699744E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42" s="7" t="str">
+        <f>[1]Yhteensä!C42</f>
+        <v>57</v>
+      </c>
+      <c r="D42" s="7">
+        <f>Yhteensä!J42</f>
+        <v>0.11558536387484111</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11558536387484111</v>
+      </c>
+      <c r="F42" s="14">
+        <f>Yhteensä!D42+Yhteensä!E42</f>
+        <v>0.86683614138518539</v>
+      </c>
+      <c r="G42" s="15">
+        <f>F42+MAX(0,Yhteensä!H42-Yhteensä!J42)</f>
+        <v>0.86683614138518539</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0801345241754369E-2</v>
+      </c>
+      <c r="J42" s="7">
+        <f>alkavuus!H41</f>
+        <v>1.7440417080436942E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43" s="7" t="str">
+        <f>[1]Yhteensä!C43</f>
+        <v>58</v>
+      </c>
+      <c r="D43" s="7">
+        <f>Yhteensä!J43</f>
+        <v>0.13361672171982455</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13361672171982455</v>
+      </c>
+      <c r="F43" s="14">
+        <f>Yhteensä!D43+Yhteensä!E43</f>
+        <v>0.85541777224237836</v>
+      </c>
+      <c r="G43" s="15">
+        <f>F43+MAX(0,Yhteensä!H43-Yhteensä!J43)</f>
+        <v>0.85541777224237836</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="1"/>
+        <v>2.5163257941075913E-2</v>
+      </c>
+      <c r="J43" s="7">
+        <f>alkavuus!H42</f>
+        <v>2.2804726566232444E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44" s="7" t="str">
+        <f>[1]Yhteensä!C44</f>
+        <v>59</v>
+      </c>
+      <c r="D44" s="7">
+        <f>Yhteensä!J44</f>
+        <v>0.15514181977014005</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="0"/>
+        <v>0.15514181977014005</v>
+      </c>
+      <c r="F44" s="14">
+        <f>Yhteensä!D44+Yhteensä!E44</f>
+        <v>0.84103628074581638</v>
+      </c>
+      <c r="G44" s="15">
+        <f>F44+MAX(0,Yhteensä!H44-Yhteensä!J44)</f>
+        <v>0.84103628074581638</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="1"/>
+        <v>2.7521297922638733E-2</v>
+      </c>
+      <c r="J44" s="7">
+        <f>alkavuus!H43</f>
+        <v>2.6778380154427468E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="C45" s="7" t="str">
+        <f>[1]Yhteensä!C45</f>
+        <v>60</v>
+      </c>
+      <c r="D45" s="7">
+        <f>Yhteensä!J45</f>
+        <v>0.17828822981629369</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="0"/>
+        <v>0.17828822981629369</v>
+      </c>
+      <c r="F45" s="14">
+        <f>Yhteensä!D45+Yhteensä!E45</f>
+        <v>0.81132714394559358</v>
+      </c>
+      <c r="G45" s="15">
+        <f>F45+MAX(0,Yhteensä!H45-Yhteensä!J45)</f>
+        <v>0.81132714394559358</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="1"/>
+        <v>3.9852895183333091E-2</v>
+      </c>
+      <c r="J45" s="7">
+        <f>alkavuus!H44</f>
+        <v>3.7438458541423157E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="C46" s="7" t="str">
+        <f>[1]Yhteensä!C46</f>
+        <v>61</v>
+      </c>
+      <c r="D46" s="7">
+        <f>Yhteensä!J46</f>
+        <v>0.21062196544335043</v>
+      </c>
+      <c r="E46" s="7">
+        <f>D46</f>
+        <v>0.21062196544335043</v>
+      </c>
+      <c r="F46" s="14">
+        <f>Yhteensä!D46+Yhteensä!E46</f>
+        <v>0.78002007215124636</v>
+      </c>
+      <c r="G46" s="15">
+        <f>F46+MAX(0,Yhteensä!H46-Yhteensä!J46)</f>
+        <v>0.78002007215124636</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" si="1"/>
+        <v>2.3791604087010407E-2</v>
+      </c>
+      <c r="J46" s="7">
+        <f>alkavuus!H45</f>
+        <v>3.4691279439847234E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="C47" s="7" t="str">
+        <f>[1]Yhteensä!C47</f>
+        <v>62</v>
+      </c>
+      <c r="D47" s="7">
+        <f>Yhteensä!J47</f>
+        <v>0.22917989417989418</v>
+      </c>
+      <c r="E47" s="7">
+        <f>D47</f>
+        <v>0.22917989417989418</v>
+      </c>
+      <c r="F47" s="14">
+        <f>Yhteensä!D47+Yhteensä!E47</f>
+        <v>0.70140211640211636</v>
+      </c>
+      <c r="G47" s="15">
+        <f>F47+MAX(0,Yhteensä!H47-Yhteensä!J47)</f>
+        <v>0.72997354497354494</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="1"/>
+        <v>2.5422741501154408E-2</v>
+      </c>
+      <c r="J47" s="7">
+        <f>alkavuus!H46</f>
+        <v>2.2649572649572649E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="C48" s="7" t="str">
+        <f>[1]Yhteensä!C48</f>
+        <v>63</v>
+      </c>
+      <c r="D48" s="7">
+        <f>Yhteensä!J48</f>
+        <v>0.14341757625897361</v>
+      </c>
+      <c r="E48" s="7">
+        <f>E47+($D$47-$D$46)</f>
+        <v>0.24773782291643792</v>
+      </c>
+      <c r="F48" s="14">
+        <f>Yhteensä!D48+Yhteensä!E48</f>
+        <v>0.45760721624723122</v>
+      </c>
+      <c r="G48" s="15">
+        <f>F48+MAX(0,Yhteensä!H48-Yhteensä!J48)</f>
+        <v>0.83211016519441694</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" si="1"/>
+        <v>2.2302249765459647E-2</v>
+      </c>
+      <c r="J48" s="7">
+        <f>alkavuus!H47</f>
+        <v>4.4140727177609208E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49" s="7" t="str">
+        <f>[1]Yhteensä!C49</f>
+        <v>64</v>
+      </c>
+      <c r="D49" s="7">
+        <f>Yhteensä!J49</f>
+        <v>0.13015739105217369</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" ref="E49:E55" si="2">E48+($D$47-$D$46)</f>
+        <v>0.26629575165298169</v>
+      </c>
+      <c r="F49" s="14">
+        <f>Yhteensä!D49+Yhteensä!E49</f>
+        <v>0.25098204634731486</v>
+      </c>
+      <c r="G49" s="15">
+        <f>F49+MAX(0,Yhteensä!H49-Yhteensä!J49)</f>
+        <v>0.85581714165194689</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1684455514319505E-2</v>
+      </c>
+      <c r="J49" s="7">
+        <f>alkavuus!H48</f>
+        <v>2.6456776241814934E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50" s="7" t="str">
+        <f>[1]Yhteensä!C50</f>
+        <v>65</v>
+      </c>
+      <c r="D50" s="7">
+        <f>Yhteensä!J50</f>
+        <v>1.1072608154204343E-2</v>
+      </c>
+      <c r="E50" s="7">
+        <f t="shared" si="2"/>
+        <v>0.28485368038952541</v>
+      </c>
+      <c r="F50" s="14">
+        <f>Yhteensä!D50+Yhteensä!E50</f>
+        <v>0.13579511614055986</v>
+      </c>
+      <c r="G50" s="15">
+        <f>F50+MAX(0,Yhteensä!H50-Yhteensä!J50)</f>
+        <v>0.97980399588499645</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8940450145624774E-2</v>
+      </c>
+      <c r="J50" s="7">
+        <f>alkavuus!H49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51" s="7" t="str">
+        <f>[1]Yhteensä!C51</f>
+        <v>66</v>
+      </c>
+      <c r="D51" s="7">
+        <f>Yhteensä!J51</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="2"/>
+        <v>0.30341160912606913</v>
+      </c>
+      <c r="F51" s="14">
+        <f>Yhteensä!D51+Yhteensä!E51</f>
+        <v>9.7568685298843605E-2</v>
+      </c>
+      <c r="G51" s="15">
+        <f>F51+MAX(0,Yhteensä!H51-Yhteensä!J51)</f>
+        <v>0.99362537207280766</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8676987583187327E-2</v>
+      </c>
+      <c r="J51" s="7">
+        <f>alkavuus!H50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="C52" s="7" t="str">
+        <f>[1]Yhteensä!C52</f>
+        <v>67</v>
+      </c>
+      <c r="D52" s="7">
+        <f>Yhteensä!J52</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" si="2"/>
+        <v>0.32196953786261284</v>
+      </c>
+      <c r="F52" s="14">
+        <f>Yhteensä!D52+Yhteensä!E52</f>
+        <v>7.9125270273968859E-2</v>
+      </c>
+      <c r="G52" s="15">
+        <f>F52+MAX(0,Yhteensä!H52-Yhteensä!J52)</f>
+        <v>0.99479979199167967</v>
+      </c>
+      <c r="I52" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8654938296065637E-2</v>
+      </c>
+      <c r="J52" s="7">
+        <f>alkavuus!H51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53" s="7" t="str">
+        <f>[1]Yhteensä!C53</f>
+        <v>68</v>
+      </c>
+      <c r="D53" s="7">
+        <f>Yhteensä!J53</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="7">
+        <f t="shared" si="2"/>
+        <v>0.34052746659915656</v>
+      </c>
+      <c r="F53" s="14">
+        <f>Yhteensä!D53+Yhteensä!E53</f>
+        <v>1.136996103999364E-2</v>
+      </c>
+      <c r="G53" s="15">
+        <f>F53+MAX(0,Yhteensä!H53-Yhteensä!J53)</f>
+        <v>0.99485833929659961</v>
+      </c>
+      <c r="I53" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8653840454978581E-2</v>
+      </c>
+      <c r="J53" s="7">
+        <f>alkavuus!H52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="C54" s="7" t="str">
+        <f>[1]Yhteensä!C54</f>
+        <v>69</v>
+      </c>
+      <c r="D54" s="7">
+        <f>Yhteensä!J54</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" si="2"/>
+        <v>0.35908539533570027</v>
+      </c>
+      <c r="F54" s="14">
+        <f>Yhteensä!D54+Yhteensä!E54</f>
+        <v>3.5860787905368798E-3</v>
+      </c>
+      <c r="G54" s="15">
+        <f>F54+MAX(0,Yhteensä!H54-Yhteensä!J54)</f>
+        <v>0.99502076829803154</v>
+      </c>
+      <c r="I54" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8650795368107525E-2</v>
+      </c>
+      <c r="J54" s="7">
+        <f>alkavuus!H53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="C55" s="7" t="str">
+        <f>[1]Yhteensä!C55</f>
+        <v>70</v>
+      </c>
+      <c r="D55" s="7">
+        <f>Yhteensä!J55</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="7">
+        <f t="shared" si="2"/>
+        <v>0.37764332407224399</v>
+      </c>
+      <c r="F55" s="14">
+        <f>Yhteensä!D55+Yhteensä!E55</f>
+        <v>2.2356587571769728E-3</v>
+      </c>
+      <c r="G55" s="15">
+        <f>F55+MAX(0,Yhteensä!H55-Yhteensä!J55)</f>
+        <v>0.99463950002540524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B427A9-DBD4-474A-8D31-8DEE213D8D65}">
+  <dimension ref="B3:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" s="7" customFormat="1">
+      <c r="C3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="7" customFormat="1" ht="16">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="2:12" s="7" customFormat="1" ht="16">
+      <c r="B5" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="17">
+        <v>71</v>
+      </c>
+      <c r="D5" s="17">
+        <v>59</v>
+      </c>
+      <c r="E5" s="17">
+        <f>D5+C5</f>
+        <v>130</v>
+      </c>
+      <c r="F5" s="18">
+        <f>C5/E5</f>
+        <v>0.5461538461538461</v>
+      </c>
+      <c r="G5" s="18">
+        <f>D5/E5</f>
+        <v>0.45384615384615384</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="2:12" s="7" customFormat="1" ht="16">
+      <c r="B6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="17">
+        <v>49</v>
+      </c>
+      <c r="D6" s="17">
+        <v>184</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" ref="E6:E10" si="0">D6+C6</f>
+        <v>233</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6:F10" si="1">C6/E6</f>
+        <v>0.21030042918454936</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" ref="G6:G10" si="2">D6/E6</f>
+        <v>0.78969957081545061</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="2:12" s="7" customFormat="1" ht="16">
+      <c r="B7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="17">
+        <v>41</v>
+      </c>
+      <c r="D7" s="17">
+        <v>211</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="1"/>
+        <v>0.1626984126984127</v>
+      </c>
+      <c r="G7" s="18">
+        <f t="shared" si="2"/>
+        <v>0.83730158730158732</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="2:12" s="7" customFormat="1" ht="16">
+      <c r="B8" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="17">
+        <v>32</v>
+      </c>
+      <c r="D8" s="17">
+        <v>228</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="1"/>
+        <v>0.12307692307692308</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="2"/>
+        <v>0.87692307692307692</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="2:12" s="7" customFormat="1" ht="16">
+      <c r="B9" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="17">
+        <v>40</v>
+      </c>
+      <c r="D9" s="17">
+        <v>188</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="1"/>
+        <v>0.17543859649122806</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="2"/>
+        <v>0.82456140350877194</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="2:12" s="7" customFormat="1" ht="16">
+      <c r="B10" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="17">
+        <v>12</v>
+      </c>
+      <c r="D10" s="17">
+        <v>5</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="1"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="2"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="2:12" s="7" customFormat="1" ht="16">
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68440E7F-AA90-364A-B196-E94AA979B6B8}">
   <dimension ref="C2:I309"/>
   <sheetViews>
@@ -15733,17 +17828,17 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:9">
       <c r="F2" s="7">
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:9">
       <c r="C3" s="7" t="s">
         <v>84</v>
       </c>
@@ -15760,7 +17855,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:9">
       <c r="C4" s="11">
         <v>20</v>
       </c>
@@ -15784,7 +17879,7 @@
         <v>5.3265400648448355E-3</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:9">
       <c r="C5" s="11">
         <f>1+C4</f>
         <v>21</v>
@@ -15810,7 +17905,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:9">
       <c r="C6" s="11">
         <f t="shared" ref="C6:C48" si="2">1+C5</f>
         <v>22</v>
@@ -15836,7 +17931,7 @@
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:9">
       <c r="C7" s="11">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -15862,7 +17957,7 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:9">
       <c r="C8" s="11">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -15888,7 +17983,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:9">
       <c r="C9" s="11">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -15914,7 +18009,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:9">
       <c r="C10" s="11">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -15940,7 +18035,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:9">
       <c r="C11" s="11">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -15966,7 +18061,7 @@
       </c>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:9">
       <c r="C12" s="11">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -15992,7 +18087,7 @@
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:9">
       <c r="C13" s="11">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -16018,7 +18113,7 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:9">
       <c r="C14" s="11">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -16044,7 +18139,7 @@
       </c>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:9">
       <c r="C15" s="11">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -16070,7 +18165,7 @@
       </c>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:9">
       <c r="C16" s="11">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -16096,7 +18191,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:9">
       <c r="C17" s="11">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -16122,7 +18217,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:9">
       <c r="C18" s="11">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -16148,7 +18243,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:9">
       <c r="C19" s="11">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -16174,7 +18269,7 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:9">
       <c r="C20" s="11">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -16200,7 +18295,7 @@
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:9">
       <c r="C21" s="11">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -16226,7 +18321,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:9">
       <c r="C22" s="11">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -16252,7 +18347,7 @@
       </c>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:9">
       <c r="C23" s="11">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -16278,7 +18373,7 @@
       </c>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:9">
       <c r="C24" s="11">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -16304,7 +18399,7 @@
       </c>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:9">
       <c r="C25" s="11">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -16330,7 +18425,7 @@
       </c>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:9">
       <c r="C26" s="11">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -16356,7 +18451,7 @@
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:9">
       <c r="C27" s="11">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -16382,7 +18477,7 @@
       </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:9">
       <c r="C28" s="11">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -16408,7 +18503,7 @@
       </c>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:9">
       <c r="C29" s="11">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -16434,7 +18529,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:9">
       <c r="C30" s="11">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -16460,7 +18555,7 @@
       </c>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:9">
       <c r="C31" s="11">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -16486,7 +18581,7 @@
       </c>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:9">
       <c r="C32" s="11">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -16512,7 +18607,7 @@
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:9">
       <c r="C33" s="11">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -16538,7 +18633,7 @@
       </c>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:9">
       <c r="C34" s="11">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -16564,7 +18659,7 @@
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:9">
       <c r="C35" s="11">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -16590,7 +18685,7 @@
       </c>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:9">
       <c r="C36" s="11">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -16616,7 +18711,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:9">
       <c r="C37" s="11">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -16642,7 +18737,7 @@
       </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:9">
       <c r="C38" s="11">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -16668,7 +18763,7 @@
       </c>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:9">
       <c r="C39" s="11">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -16694,7 +18789,7 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:9">
       <c r="C40" s="11">
         <f t="shared" si="2"/>
         <v>56</v>
@@ -16720,7 +18815,7 @@
       </c>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:9">
       <c r="C41" s="11">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -16746,7 +18841,7 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:9">
       <c r="C42" s="11">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -16772,7 +18867,7 @@
       </c>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:9">
       <c r="C43" s="11">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -16798,7 +18893,7 @@
       </c>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:9">
       <c r="C44" s="11">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -16824,7 +18919,7 @@
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:9">
       <c r="C45" s="11">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -16850,7 +18945,7 @@
       </c>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:9">
       <c r="C46" s="11">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -16876,7 +18971,7 @@
       </c>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:9">
       <c r="C47" s="11">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -16902,7 +18997,7 @@
       </c>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:9">
       <c r="C48" s="11">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -16928,787 +19023,787 @@
       </c>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3">
       <c r="C49" s="11"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3">
       <c r="C50" s="11"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3">
       <c r="C51" s="11"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3">
       <c r="C52" s="11"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3">
       <c r="C53" s="11"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3">
       <c r="C54" s="11"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3">
       <c r="C55" s="11"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3">
       <c r="C56" s="11"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3">
       <c r="C57" s="11"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:3">
       <c r="C58" s="11"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:3">
       <c r="C59" s="11"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3">
       <c r="C60" s="11"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3">
       <c r="C61" s="11"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:3">
       <c r="C62" s="11"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:3">
       <c r="C63" s="11"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:3">
       <c r="C64" s="11"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3">
       <c r="C65" s="11"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3">
       <c r="C66" s="11"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3">
       <c r="C67" s="11"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3">
       <c r="C68" s="11"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3">
       <c r="C69" s="11"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3">
       <c r="C70" s="11"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3">
       <c r="C71" s="11"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3">
       <c r="C72" s="11"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3">
       <c r="C73" s="11"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3">
       <c r="C74" s="11"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3">
       <c r="C75" s="11"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3">
       <c r="C76" s="11"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3">
       <c r="C77" s="11"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3">
       <c r="C78" s="11"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3">
       <c r="C79" s="11"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3">
       <c r="C80" s="11"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3">
       <c r="C81" s="11"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3">
       <c r="C82" s="11"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3">
       <c r="C83" s="11"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3">
       <c r="C84" s="11"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3">
       <c r="C85" s="11"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3">
       <c r="C86" s="11"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3">
       <c r="C87" s="11"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:3">
       <c r="C88" s="11"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:3">
       <c r="C89" s="11"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:3">
       <c r="C90" s="11"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3">
       <c r="C91" s="11"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:3">
       <c r="C92" s="11"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:3">
       <c r="C93" s="11"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3">
       <c r="C94" s="11"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:3">
       <c r="C95" s="11"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:3">
       <c r="C96" s="11"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3">
       <c r="C97" s="11"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:3">
       <c r="C98" s="11"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:3">
       <c r="C99" s="11"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:3">
       <c r="C100" s="11"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:3">
       <c r="C101" s="11"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:3">
       <c r="C102" s="11"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:3">
       <c r="C103" s="11"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:3">
       <c r="C104" s="11"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:3">
       <c r="C105" s="11"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:3">
       <c r="C106" s="11"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:3">
       <c r="C107" s="11"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:3">
       <c r="C108" s="11"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:3">
       <c r="C109" s="11"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:3">
       <c r="C110" s="11"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:3">
       <c r="C111" s="11"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:3">
       <c r="C112" s="11"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:3">
       <c r="C113" s="11"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:3">
       <c r="C114" s="11"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:3">
       <c r="C115" s="11"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:3">
       <c r="C116" s="11"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:3">
       <c r="C117" s="11"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:3">
       <c r="C118" s="11"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:3">
       <c r="C119" s="11"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:3">
       <c r="C120" s="11"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:3">
       <c r="C121" s="11"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:3">
       <c r="C122" s="11"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:3">
       <c r="C123" s="11"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:3">
       <c r="C124" s="11"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:3">
       <c r="C125" s="11"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:3">
       <c r="C126" s="11"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:3">
       <c r="C127" s="11"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:3">
       <c r="C128" s="11"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:3">
       <c r="C129" s="11"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:3">
       <c r="C130" s="11"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:3">
       <c r="C131" s="11"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:3">
       <c r="C132" s="11"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:3">
       <c r="C133" s="11"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:3">
       <c r="C134" s="11"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:3">
       <c r="C135" s="11"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:3">
       <c r="C136" s="11"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:3">
       <c r="C137" s="11"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:3">
       <c r="C138" s="11"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:3">
       <c r="C139" s="11"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:3">
       <c r="C140" s="11"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:3">
       <c r="C141" s="11"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:3">
       <c r="C142" s="11"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:3">
       <c r="C143" s="11"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:3">
       <c r="C144" s="11"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:3">
       <c r="C145" s="11"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:3">
       <c r="C146" s="11"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:3">
       <c r="C147" s="11"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:3">
       <c r="C148" s="11"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:3">
       <c r="C149" s="11"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:3">
       <c r="C150" s="11"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:3">
       <c r="C151" s="11"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:3">
       <c r="C152" s="11"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:3">
       <c r="C153" s="11"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:3">
       <c r="C154" s="11"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:3">
       <c r="C155" s="11"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:3">
       <c r="C156" s="11"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:3">
       <c r="C157" s="11"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:3">
       <c r="C158" s="11"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:3">
       <c r="C159" s="11"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:3">
       <c r="C160" s="11"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:3">
       <c r="C161" s="11"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:3">
       <c r="C162" s="11"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:3">
       <c r="C163" s="11"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:3">
       <c r="C164" s="11"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:3">
       <c r="C165" s="11"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:3">
       <c r="C166" s="11"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:3">
       <c r="C167" s="11"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:3">
       <c r="C168" s="11"/>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:3">
       <c r="C169" s="11"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:3">
       <c r="C170" s="11"/>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:3">
       <c r="C171" s="11"/>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:3">
       <c r="C172" s="11"/>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:3">
       <c r="C173" s="11"/>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:3">
       <c r="C174" s="11"/>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:3">
       <c r="C175" s="11"/>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:3">
       <c r="C176" s="11"/>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:3">
       <c r="C177" s="11"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:3">
       <c r="C178" s="11"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:3">
       <c r="C179" s="11"/>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:3">
       <c r="C180" s="11"/>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:3">
       <c r="C181" s="11"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:3">
       <c r="C182" s="11"/>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:3">
       <c r="C183" s="11"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:3">
       <c r="C184" s="11"/>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:3">
       <c r="C185" s="11"/>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:3">
       <c r="C186" s="11"/>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:3">
       <c r="C187" s="11"/>
     </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:3">
       <c r="C188" s="11"/>
     </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:3">
       <c r="C189" s="11"/>
     </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:3">
       <c r="C190" s="11"/>
     </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:3">
       <c r="C191" s="11"/>
     </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:3">
       <c r="C192" s="11"/>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:3">
       <c r="C193" s="11"/>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:3">
       <c r="C194" s="11"/>
     </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:3">
       <c r="C195" s="11"/>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:3">
       <c r="C196" s="11"/>
     </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:3">
       <c r="C197" s="11"/>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:3">
       <c r="C198" s="11"/>
     </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:3">
       <c r="C199" s="11"/>
     </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:3">
       <c r="C200" s="11"/>
     </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:3">
       <c r="C201" s="11"/>
     </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:3">
       <c r="C202" s="11"/>
     </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:3">
       <c r="C203" s="11"/>
     </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:3">
       <c r="C204" s="11"/>
     </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:3">
       <c r="C205" s="11"/>
     </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:3">
       <c r="C206" s="11"/>
     </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:3">
       <c r="C207" s="11"/>
     </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:3">
       <c r="C208" s="11"/>
     </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:3">
       <c r="C209" s="11"/>
     </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:3">
       <c r="C210" s="11"/>
     </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:3">
       <c r="C211" s="11"/>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:3">
       <c r="C212" s="11"/>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:3">
       <c r="C213" s="11"/>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:3">
       <c r="C214" s="11"/>
     </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:3">
       <c r="C215" s="11"/>
     </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:3">
       <c r="C216" s="11"/>
     </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:3">
       <c r="C217" s="11"/>
     </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:3">
       <c r="C218" s="11"/>
     </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:3">
       <c r="C219" s="11"/>
     </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:3">
       <c r="C220" s="11"/>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:3">
       <c r="C221" s="11"/>
     </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:3">
       <c r="C222" s="11"/>
     </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:3">
       <c r="C223" s="11"/>
     </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:3">
       <c r="C224" s="11"/>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:3">
       <c r="C225" s="11"/>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:3">
       <c r="C226" s="11"/>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:3">
       <c r="C227" s="11"/>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:3">
       <c r="C228" s="11"/>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:3">
       <c r="C229" s="11"/>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:3">
       <c r="C230" s="11"/>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:3">
       <c r="C231" s="11"/>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:3">
       <c r="C232" s="11"/>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:3">
       <c r="C233" s="11"/>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:3">
       <c r="C234" s="11"/>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:3">
       <c r="C235" s="11"/>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:3">
       <c r="C236" s="11"/>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:3">
       <c r="C237" s="11"/>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:3">
       <c r="C238" s="11"/>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:3">
       <c r="C239" s="11"/>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:3">
       <c r="C240" s="11"/>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:3">
       <c r="C241" s="11"/>
     </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:3">
       <c r="C242" s="11"/>
     </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:3">
       <c r="C243" s="11"/>
     </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:3">
       <c r="C244" s="11"/>
     </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:3">
       <c r="C245" s="11"/>
     </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:3">
       <c r="C246" s="11"/>
     </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:3">
       <c r="C247" s="11"/>
     </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:3">
       <c r="C248" s="11"/>
     </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:3">
       <c r="C249" s="11"/>
     </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:3">
       <c r="C250" s="11"/>
     </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:3">
       <c r="C251" s="11"/>
     </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:3">
       <c r="C252" s="11"/>
     </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:3">
       <c r="C253" s="11"/>
     </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:3">
       <c r="C254" s="11"/>
     </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:3">
       <c r="C255" s="11"/>
     </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:3">
       <c r="C256" s="11"/>
     </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:3">
       <c r="C257" s="11"/>
     </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:3">
       <c r="C258" s="11"/>
     </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:3">
       <c r="C259" s="11"/>
     </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:3">
       <c r="C260" s="11"/>
     </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:3">
       <c r="C261" s="11"/>
     </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:3">
       <c r="C262" s="11"/>
     </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:3">
       <c r="C263" s="11"/>
     </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:3">
       <c r="C264" s="11"/>
     </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:3">
       <c r="C265" s="11"/>
     </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:3">
       <c r="C266" s="11"/>
     </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:3">
       <c r="C267" s="11"/>
     </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:3">
       <c r="C268" s="11"/>
     </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:3">
       <c r="C269" s="11"/>
     </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:3">
       <c r="C270" s="11"/>
     </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:3">
       <c r="C271" s="11"/>
     </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:3">
       <c r="C272" s="11"/>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:3">
       <c r="C273" s="11"/>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:3">
       <c r="C274" s="11"/>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:3">
       <c r="C275" s="11"/>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:3">
       <c r="C276" s="11"/>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:3">
       <c r="C277" s="11"/>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:3">
       <c r="C278" s="11"/>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:3">
       <c r="C279" s="11"/>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:3">
       <c r="C280" s="11"/>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:3">
       <c r="C281" s="11"/>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:3">
       <c r="C282" s="11"/>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:3">
       <c r="C283" s="11"/>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:3">
       <c r="C284" s="11"/>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:3">
       <c r="C285" s="11"/>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:3">
       <c r="C286" s="11"/>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:3">
       <c r="C287" s="11"/>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:3">
       <c r="C288" s="11"/>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:3">
       <c r="C289" s="11"/>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:3">
       <c r="C290" s="11"/>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:3">
       <c r="C291" s="11"/>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:3">
       <c r="C292" s="11"/>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:3">
       <c r="C293" s="11"/>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:3">
       <c r="C294" s="11"/>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:3">
       <c r="C295" s="11"/>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:3">
       <c r="C296" s="11"/>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:3">
       <c r="C297" s="11"/>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:3">
       <c r="C298" s="11"/>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:3">
       <c r="C299" s="11"/>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:3">
       <c r="C300" s="11"/>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:3">
       <c r="C301" s="11"/>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:3">
       <c r="C302" s="11"/>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:3">
       <c r="C303" s="11"/>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:3">
       <c r="C304" s="11"/>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:3">
       <c r="C305" s="11"/>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:3">
       <c r="C306" s="11"/>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:3">
       <c r="C307" s="11"/>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:3">
       <c r="C308" s="11"/>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:3">
       <c r="C309" s="11"/>
     </row>
   </sheetData>
@@ -17717,7 +19812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163C39A6-29BF-724E-904D-5E7F0695D24E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17725,7 +19820,7 @@
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/intensities/tilastokeskus data väestörakenne 2018 naiset.xlsx
+++ b/intensities/tilastokeskus data väestörakenne 2018 naiset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Documents/Github/econogym/intensities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034628CD-C4B9-5A49-9B9D-4C03F6F88A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F70B90D-387B-A74B-851E-7EBD58BA23EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="460" windowWidth="19740" windowHeight="14600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7720" yWindow="1160" windowWidth="20620" windowHeight="14600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="022_115c_2018" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="109">
   <si>
     <t>Väestö muuttujina Pääasiallinen toiminta, Sukupuoli, Ikä, Vuosi ja Tiedot</t>
   </si>
@@ -411,18 +411,25 @@
   <si>
     <t>65 - 74</t>
   </si>
+  <si>
+    <t>ei-opisk</t>
+  </si>
+  <si>
+    <t>vanh.vapaat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;?????\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -490,7 +497,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -508,10 +515,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -6412,16 +6420,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12492,10 +12500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446C12A0-C80E-B64C-BEF9-F9B58C29F90E}">
-  <dimension ref="A1:M350"/>
+  <dimension ref="A1:P350"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M55"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12508,9 +12516,10 @@
     <col min="6" max="7" width="9.1640625" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19">
+    <row r="1" spans="1:16" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12518,12 +12527,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:16">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:16">
       <c r="D4" s="2" t="s">
         <v>81</v>
       </c>
@@ -12551,8 +12560,14 @@
       <c r="M4" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -12595,8 +12610,15 @@
         <f>SUM(Yhteensä!D5:E5)</f>
         <v>0.62663951401353035</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" s="19">
+        <f>E5+D5</f>
+        <v>0.62663951401353035</v>
+      </c>
+      <c r="P5" s="7">
+        <v>6.1131900000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -12636,8 +12658,15 @@
         <f>SUM(Yhteensä!D6:E6)</f>
         <v>0.62954259614748131</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6" s="19">
+        <f t="shared" ref="O6:O55" si="0">E6+D6</f>
+        <v>0.62954259614748131</v>
+      </c>
+      <c r="P6" s="7">
+        <v>2.8002369999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -12677,8 +12706,15 @@
         <f>SUM(Yhteensä!D7:E7)</f>
         <v>0.64597380705394192</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7" s="19">
+        <f t="shared" si="0"/>
+        <v>0.64597380705394192</v>
+      </c>
+      <c r="P7" s="7">
+        <v>3.9637150000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -12718,8 +12754,15 @@
         <f>SUM(Yhteensä!D8:E8)</f>
         <v>0.68066732697783827</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.68066732697783827</v>
+      </c>
+      <c r="P8" s="7">
+        <v>5.7582330000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -12759,8 +12802,15 @@
         <f>SUM(Yhteensä!D9:E9)</f>
         <v>0.72610705233338302</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9" s="19">
+        <f t="shared" si="0"/>
+        <v>0.72610705233338302</v>
+      </c>
+      <c r="P9" s="7">
+        <v>6.1329130000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
@@ -12800,8 +12850,15 @@
         <f>SUM(Yhteensä!D10:E10)</f>
         <v>0.75079492437074669</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.75079492437074669</v>
+      </c>
+      <c r="P10" s="7">
+        <v>6.1526329999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
@@ -12841,8 +12898,15 @@
         <f>SUM(Yhteensä!D11:E11)</f>
         <v>0.76870807059975244</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11" s="19">
+        <f t="shared" si="0"/>
+        <v>0.76870807059975244</v>
+      </c>
+      <c r="P11" s="7">
+        <v>7.6513510000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
@@ -12882,8 +12946,15 @@
         <f>SUM(Yhteensä!D12:E12)</f>
         <v>0.78955137481910276</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12" s="19">
+        <f t="shared" si="0"/>
+        <v>0.78955137481910276</v>
+      </c>
+      <c r="P12" s="7">
+        <v>7.94715E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
@@ -12923,8 +12994,15 @@
         <f>SUM(Yhteensä!D13:E13)</f>
         <v>0.79538180155464111</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13" s="19">
+        <f t="shared" si="0"/>
+        <v>0.79538180155464111</v>
+      </c>
+      <c r="P13" s="7">
+        <v>8.8542689999999993E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
@@ -12964,8 +13042,15 @@
         <f>SUM(Yhteensä!D14:E14)</f>
         <v>0.80435986360854494</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14" s="19">
+        <f t="shared" si="0"/>
+        <v>0.80435986360854494</v>
+      </c>
+      <c r="P14" s="7">
+        <v>9.9388679999999993E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
@@ -13005,8 +13090,15 @@
         <f>SUM(Yhteensä!D15:E15)</f>
         <v>0.81280344216065348</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15" s="19">
+        <f t="shared" si="0"/>
+        <v>0.81280344216065348</v>
+      </c>
+      <c r="P15" s="7">
+        <v>9.2881089999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
@@ -13046,8 +13138,15 @@
         <f>SUM(Yhteensä!D16:E16)</f>
         <v>0.81985563983361887</v>
       </c>
-    </row>
-    <row r="17" spans="3:13">
+      <c r="O16" s="19">
+        <f t="shared" si="0"/>
+        <v>0.81985563983361887</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.10629067</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16">
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
@@ -13087,8 +13186,15 @@
         <f>SUM(Yhteensä!D17:E17)</f>
         <v>0.82396811497931699</v>
       </c>
-    </row>
-    <row r="18" spans="3:13">
+      <c r="O17" s="19">
+        <f t="shared" si="0"/>
+        <v>0.82396811497931699</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.10017748</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16">
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
@@ -13128,8 +13234,15 @@
         <f>SUM(Yhteensä!D18:E18)</f>
         <v>0.83158325777296793</v>
       </c>
-    </row>
-    <row r="19" spans="3:13">
+      <c r="O18" s="19">
+        <f t="shared" si="0"/>
+        <v>0.83158325777296793</v>
+      </c>
+      <c r="P18" s="7">
+        <v>9.4064289999999995E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16">
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
@@ -13169,8 +13282,15 @@
         <f>SUM(Yhteensä!D19:E19)</f>
         <v>0.83883627676819383</v>
       </c>
-    </row>
-    <row r="20" spans="3:13">
+      <c r="O19" s="19">
+        <f t="shared" si="0"/>
+        <v>0.83883627676819383</v>
+      </c>
+      <c r="P19" s="7">
+        <v>8.55847E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
@@ -13210,8 +13330,15 @@
         <f>SUM(Yhteensä!D20:E20)</f>
         <v>0.84679914160697867</v>
       </c>
-    </row>
-    <row r="21" spans="3:13">
+      <c r="O20" s="19">
+        <f t="shared" si="0"/>
+        <v>0.84679914160697867</v>
+      </c>
+      <c r="P20" s="7">
+        <v>7.118911E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16">
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
@@ -13251,8 +13378,15 @@
         <f>SUM(Yhteensä!D21:E21)</f>
         <v>0.85639553066272422</v>
       </c>
-    </row>
-    <row r="22" spans="3:13">
+      <c r="O21" s="19">
+        <f t="shared" si="0"/>
+        <v>0.85639553066272422</v>
+      </c>
+      <c r="P21" s="7">
+        <v>6.5470319999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16">
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
@@ -13292,8 +13426,15 @@
         <f>SUM(Yhteensä!D22:E22)</f>
         <v>0.86293374006394274</v>
       </c>
-    </row>
-    <row r="23" spans="3:13">
+      <c r="O22" s="19">
+        <f t="shared" si="0"/>
+        <v>0.86293374006394274</v>
+      </c>
+      <c r="P22" s="7">
+        <v>6.6850720000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16">
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
@@ -13333,8 +13474,15 @@
         <f>SUM(Yhteensä!D23:E23)</f>
         <v>0.86821866555809613</v>
       </c>
-    </row>
-    <row r="24" spans="3:13">
+      <c r="O23" s="19">
+        <f t="shared" si="0"/>
+        <v>0.86821866555809613</v>
+      </c>
+      <c r="P23" s="7">
+        <v>4.6144739999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16">
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
@@ -13374,8 +13522,15 @@
         <f>SUM(Yhteensä!D24:E24)</f>
         <v>0.87755952380952384</v>
       </c>
-    </row>
-    <row r="25" spans="3:13">
+      <c r="O24" s="19">
+        <f t="shared" si="0"/>
+        <v>0.87755952380952384</v>
+      </c>
+      <c r="P24" s="7">
+        <v>4.1214750000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16">
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
@@ -13415,8 +13570,15 @@
         <f>SUM(Yhteensä!D25:E25)</f>
         <v>0.88261493393914037</v>
       </c>
-    </row>
-    <row r="26" spans="3:13">
+      <c r="O25" s="19">
+        <f t="shared" si="0"/>
+        <v>0.88261493393914037</v>
+      </c>
+      <c r="P25" s="7">
+        <v>3.3326759999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16">
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
@@ -13456,8 +13618,15 @@
         <f>SUM(Yhteensä!D26:E26)</f>
         <v>0.89120649583713341</v>
       </c>
-    </row>
-    <row r="27" spans="3:13">
+      <c r="O26" s="19">
+        <f t="shared" si="0"/>
+        <v>0.89120649583713341</v>
+      </c>
+      <c r="P26" s="7">
+        <v>2.287517E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16">
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
@@ -13497,8 +13666,15 @@
         <f>SUM(Yhteensä!D27:E27)</f>
         <v>0.89660144181256429</v>
       </c>
-    </row>
-    <row r="28" spans="3:13">
+      <c r="O27" s="19">
+        <f t="shared" si="0"/>
+        <v>0.89660144181256429</v>
+      </c>
+      <c r="P27" s="7">
+        <v>1.597318E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16">
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
@@ -13538,8 +13714,15 @@
         <f>SUM(Yhteensä!D28:E28)</f>
         <v>0.89837202291227003</v>
       </c>
-    </row>
-    <row r="29" spans="3:13">
+      <c r="O28" s="19">
+        <f t="shared" si="0"/>
+        <v>0.89837202291227003</v>
+      </c>
+      <c r="P28" s="7">
+        <v>1.045159E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16">
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
@@ -13579,8 +13762,15 @@
         <f>SUM(Yhteensä!D29:E29)</f>
         <v>0.90039379922490315</v>
       </c>
-    </row>
-    <row r="30" spans="3:13">
+      <c r="O29" s="19">
+        <f t="shared" si="0"/>
+        <v>0.90039379922490315</v>
+      </c>
+      <c r="P29" s="7">
+        <v>6.5075899999999997E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16">
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
@@ -13620,8 +13810,15 @@
         <f>SUM(Yhteensä!D30:E30)</f>
         <v>0.89967133713890335</v>
       </c>
-    </row>
-    <row r="31" spans="3:13">
+      <c r="O30" s="19">
+        <f t="shared" si="0"/>
+        <v>0.89967133713890335</v>
+      </c>
+      <c r="P30" s="7">
+        <v>3.1551999999999999E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16">
       <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
@@ -13661,8 +13858,15 @@
         <f>SUM(Yhteensä!D31:E31)</f>
         <v>0.8994721368435119</v>
       </c>
-    </row>
-    <row r="32" spans="3:13">
+      <c r="O31" s="19">
+        <f t="shared" si="0"/>
+        <v>0.8994721368435119</v>
+      </c>
+      <c r="P31" s="7">
+        <v>3.3524000000000002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16">
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
@@ -13702,8 +13906,15 @@
         <f>SUM(Yhteensä!D32:E32)</f>
         <v>0.90212902193052669</v>
       </c>
-    </row>
-    <row r="33" spans="3:13">
+      <c r="O32" s="19">
+        <f t="shared" si="0"/>
+        <v>0.90212902193052669</v>
+      </c>
+      <c r="P32" s="7">
+        <v>9.859999999999999E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16">
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
@@ -13743,8 +13954,15 @@
         <f>SUM(Yhteensä!D33:E33)</f>
         <v>0.9007012970893068</v>
       </c>
-    </row>
-    <row r="34" spans="3:13">
+      <c r="O33" s="19">
+        <f t="shared" si="0"/>
+        <v>0.9007012970893068</v>
+      </c>
+      <c r="P33" s="7">
+        <v>1.1831999999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16">
       <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
@@ -13784,8 +14002,15 @@
         <f>SUM(Yhteensä!D34:E34)</f>
         <v>0.89815635796618465</v>
       </c>
-    </row>
-    <row r="35" spans="3:13">
+      <c r="O34" s="19">
+        <f t="shared" si="0"/>
+        <v>0.89815635796618465</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16">
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
@@ -13825,8 +14050,15 @@
         <f>SUM(Yhteensä!D35:E35)</f>
         <v>0.89783193991781207</v>
       </c>
-    </row>
-    <row r="36" spans="3:13">
+      <c r="O35" s="19">
+        <f t="shared" si="0"/>
+        <v>0.89783193991781207</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16">
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
@@ -13866,8 +14098,15 @@
         <f>SUM(Yhteensä!D36:E36)</f>
         <v>0.89741883611965945</v>
       </c>
-    </row>
-    <row r="37" spans="3:13">
+      <c r="O36" s="19">
+        <f t="shared" si="0"/>
+        <v>0.89741883611965945</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16">
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
@@ -13907,8 +14146,15 @@
         <f>SUM(Yhteensä!D37:E37)</f>
         <v>0.89360178477979457</v>
       </c>
-    </row>
-    <row r="38" spans="3:13">
+      <c r="O37" s="19">
+        <f t="shared" si="0"/>
+        <v>0.89360178477979457</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16">
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
@@ -13948,8 +14194,15 @@
         <f>SUM(Yhteensä!D38:E38)</f>
         <v>0.89142355779776261</v>
       </c>
-    </row>
-    <row r="39" spans="3:13">
+      <c r="O38" s="19">
+        <f t="shared" si="0"/>
+        <v>0.89142355779776261</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16">
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
@@ -13989,8 +14242,15 @@
         <f>SUM(Yhteensä!D39:E39)</f>
         <v>0.88613461227569112</v>
       </c>
-    </row>
-    <row r="40" spans="3:13">
+      <c r="O39" s="19">
+        <f t="shared" si="0"/>
+        <v>0.88613461227569112</v>
+      </c>
+      <c r="P39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16">
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
@@ -14030,8 +14290,15 @@
         <f>SUM(Yhteensä!D40:E40)</f>
         <v>0.88374076937431689</v>
       </c>
-    </row>
-    <row r="41" spans="3:13">
+      <c r="O40" s="19">
+        <f t="shared" si="0"/>
+        <v>0.88374076937431689</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16">
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
@@ -14071,8 +14338,15 @@
         <f>SUM(Yhteensä!D41:E41)</f>
         <v>0.87216400172860853</v>
       </c>
-    </row>
-    <row r="42" spans="3:13">
+      <c r="O41" s="19">
+        <f t="shared" si="0"/>
+        <v>0.87216400172860853</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16">
       <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
@@ -14112,8 +14386,15 @@
         <f>SUM(Yhteensä!D42:E42)</f>
         <v>0.86683614138518539</v>
       </c>
-    </row>
-    <row r="43" spans="3:13">
+      <c r="O42" s="19">
+        <f t="shared" si="0"/>
+        <v>0.86683614138518539</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16">
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
@@ -14153,8 +14434,15 @@
         <f>SUM(Yhteensä!D43:E43)</f>
         <v>0.85541777224237836</v>
       </c>
-    </row>
-    <row r="44" spans="3:13">
+      <c r="O43" s="19">
+        <f t="shared" si="0"/>
+        <v>0.85541777224237836</v>
+      </c>
+      <c r="P43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16">
       <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
@@ -14194,8 +14482,15 @@
         <f>SUM(Yhteensä!D44:E44)</f>
         <v>0.84103628074581638</v>
       </c>
-    </row>
-    <row r="45" spans="3:13">
+      <c r="O44" s="19">
+        <f t="shared" si="0"/>
+        <v>0.84103628074581638</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16">
       <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
@@ -14235,8 +14530,15 @@
         <f>SUM(Yhteensä!D45:E45)</f>
         <v>0.81132714394559358</v>
       </c>
-    </row>
-    <row r="46" spans="3:13">
+      <c r="O45" s="19">
+        <f t="shared" si="0"/>
+        <v>0.81132714394559358</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16">
       <c r="C46" s="2" t="s">
         <v>45</v>
       </c>
@@ -14276,8 +14578,15 @@
         <f>SUM(Yhteensä!D46:E46)</f>
         <v>0.78002007215124636</v>
       </c>
-    </row>
-    <row r="47" spans="3:13">
+      <c r="O46" s="19">
+        <f t="shared" si="0"/>
+        <v>0.78002007215124636</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16">
       <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
@@ -14317,8 +14626,15 @@
         <f>SUM(Yhteensä!D47:E47)</f>
         <v>0.70140211640211636</v>
       </c>
-    </row>
-    <row r="48" spans="3:13">
+      <c r="O47" s="19">
+        <f t="shared" si="0"/>
+        <v>0.70140211640211636</v>
+      </c>
+      <c r="P47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16">
       <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
@@ -14358,8 +14674,15 @@
         <f>SUM(Yhteensä!D48:E48)</f>
         <v>0.45760721624723122</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="O48" s="19">
+        <f t="shared" si="0"/>
+        <v>0.45760721624723122</v>
+      </c>
+      <c r="P48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
@@ -14399,8 +14722,15 @@
         <f>SUM(Yhteensä!D49:E49)</f>
         <v>0.25098204634731486</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="O49" s="19">
+        <f t="shared" si="0"/>
+        <v>0.25098204634731486</v>
+      </c>
+      <c r="P49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
@@ -14439,8 +14769,15 @@
         <f>SUM(Yhteensä!D50:E50)</f>
         <v>0.13579511614055986</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="O50" s="19">
+        <f t="shared" si="0"/>
+        <v>0.13579511614055986</v>
+      </c>
+      <c r="P50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
@@ -14479,8 +14816,15 @@
         <f>SUM(Yhteensä!D51:E51)</f>
         <v>9.7568685298843605E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="O51" s="19">
+        <f t="shared" si="0"/>
+        <v>9.7568685298843605E-2</v>
+      </c>
+      <c r="P51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="C52" s="2" t="s">
         <v>51</v>
       </c>
@@ -14519,8 +14863,15 @@
         <f>SUM(Yhteensä!D52:E52)</f>
         <v>7.9125270273968859E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="O52" s="19">
+        <f t="shared" si="0"/>
+        <v>7.9125270273968859E-2</v>
+      </c>
+      <c r="P52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
@@ -14559,8 +14910,15 @@
         <f>SUM(Yhteensä!D53:E53)</f>
         <v>1.136996103999364E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="O53" s="19">
+        <f t="shared" si="0"/>
+        <v>1.136996103999364E-2</v>
+      </c>
+      <c r="P53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="C54" s="2" t="s">
         <v>53</v>
       </c>
@@ -14599,8 +14957,15 @@
         <f>SUM(Yhteensä!D54:E54)</f>
         <v>3.5860787905368798E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="O54" s="19">
+        <f t="shared" si="0"/>
+        <v>3.5860787905368798E-3</v>
+      </c>
+      <c r="P54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="C55" s="2" t="s">
         <v>54</v>
       </c>
@@ -14639,50 +15004,57 @@
         <f>SUM(Yhteensä!D55:E55)</f>
         <v>2.2356587571769728E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="O55" s="19">
+        <f t="shared" si="0"/>
+        <v>2.2356587571769728E-3</v>
+      </c>
+      <c r="P55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:16">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:16">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:16">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:16">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:16">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:16">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:16">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:16">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="3"/>
@@ -16057,7 +16429,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16107,16 +16479,16 @@
         <v>1.211514565787657E-2</v>
       </c>
       <c r="F5" s="14">
-        <f>Yhteensä!D5+Yhteensä!E5</f>
-        <v>0.62663951401353035</v>
+        <f>Yhteensä!D5+Yhteensä!E5+Yhteensä!F5+Yhteensä!I5</f>
+        <v>0.98640066270882243</v>
       </c>
       <c r="G5" s="15">
         <f>F5+MAX(0,Yhteensä!H5-Yhteensä!J5)</f>
-        <v>0.62663951401353035</v>
+        <v>0.98640066270882243</v>
       </c>
       <c r="I5" s="7">
         <f>MAX(0,E6-E5)/G5</f>
-        <v>4.9623180953009818E-3</v>
+        <v>3.1524559108471314E-3</v>
       </c>
       <c r="J5" s="7">
         <f>alkavuus!H4</f>
@@ -16137,16 +16509,16 @@
         <v>1.5224730257496525E-2</v>
       </c>
       <c r="F6" s="14">
-        <f>Yhteensä!D6+Yhteensä!E6</f>
-        <v>0.62954259614748131</v>
+        <f>Yhteensä!D6+Yhteensä!E6+Yhteensä!F6+Yhteensä!I6</f>
+        <v>0.98533792281723709</v>
       </c>
       <c r="G6" s="15">
         <f>F6+MAX(0,Yhteensä!H6-Yhteensä!J6)</f>
-        <v>0.62954259614748131</v>
+        <v>0.98533792281723709</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" ref="I6:I54" si="1">MAX(0,E7-E6)/G6</f>
-        <v>2.8500077496787213E-3</v>
+        <v>1.8208994459923738E-3</v>
       </c>
       <c r="J6" s="7">
         <f>alkavuus!H5</f>
@@ -16167,16 +16539,16 @@
         <v>1.7018931535269708E-2</v>
       </c>
       <c r="F7" s="14">
-        <f>Yhteensä!D7+Yhteensä!E7</f>
-        <v>0.64597380705394192</v>
+        <f>Yhteensä!D7+Yhteensä!E7+Yhteensä!F7+Yhteensä!I7</f>
+        <v>0.98557442946058094</v>
       </c>
       <c r="G7" s="15">
         <f>F7+MAX(0,Yhteensä!H7-Yhteensä!J7)</f>
-        <v>0.64597380705394192</v>
+        <v>0.98557442946058094</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="1"/>
-        <v>4.7030084967988797E-3</v>
+        <v>3.0824869360165535E-3</v>
       </c>
       <c r="J7" s="7">
         <f>alkavuus!H6</f>
@@ -16197,12 +16569,12 @@
         <v>2.0056951838553917E-2</v>
       </c>
       <c r="F8" s="14">
-        <f>Yhteensä!D8+Yhteensä!E8</f>
-        <v>0.68066732697783827</v>
+        <f>Yhteensä!D8+Yhteensä!E8+Yhteensä!F8+Yhteensä!I8</f>
+        <v>0.98331682555404232</v>
       </c>
       <c r="G8" s="15">
         <f>F8+MAX(0,Yhteensä!H8-Yhteensä!J8)</f>
-        <v>0.68066732697783827</v>
+        <v>0.98331682555404232</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="1"/>
@@ -16227,16 +16599,16 @@
         <v>1.962129118831072E-2</v>
       </c>
       <c r="F9" s="14">
-        <f>Yhteensä!D9+Yhteensä!E9</f>
-        <v>0.72610705233338302</v>
+        <f>Yhteensä!D9+Yhteensä!E9+Yhteensä!F9+Yhteensä!I9</f>
+        <v>0.98410615774563892</v>
       </c>
       <c r="G9" s="15">
         <f>F9+MAX(0,Yhteensä!H9-Yhteensä!J9)</f>
-        <v>0.72610705233338302</v>
+        <v>0.98410615774563892</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="1"/>
-        <v>1.6257493194578451E-3</v>
+        <v>1.1995332382521823E-3</v>
       </c>
       <c r="J9" s="7">
         <f>alkavuus!H8</f>
@@ -16257,16 +16629,16 @@
         <v>2.080175923449526E-2</v>
       </c>
       <c r="F10" s="14">
-        <f>Yhteensä!D10+Yhteensä!E10</f>
-        <v>0.75079492437074669</v>
+        <f>Yhteensä!D10+Yhteensä!E10+Yhteensä!F10+Yhteensä!I10</f>
+        <v>0.98315057502005876</v>
       </c>
       <c r="G10" s="15">
         <f>F10+MAX(0,Yhteensä!H10-Yhteensä!J10)</f>
-        <v>0.75079492437074669</v>
+        <v>0.98315057502005876</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="1"/>
-        <v>9.4087410427955685E-4</v>
+        <v>7.1850998200408058E-4</v>
       </c>
       <c r="J10" s="7">
         <f>alkavuus!H9</f>
@@ -16287,16 +16659,16 @@
         <v>2.1508162736460223E-2</v>
       </c>
       <c r="F11" s="14">
-        <f>Yhteensä!D11+Yhteensä!E11</f>
-        <v>0.76870807059975244</v>
+        <f>Yhteensä!D11+Yhteensä!E11+Yhteensä!F11+Yhteensä!I11</f>
+        <v>0.98200454924994962</v>
       </c>
       <c r="G11" s="15">
         <f>F11+MAX(0,Yhteensä!H11-Yhteensä!J11)</f>
-        <v>0.76870807059975244</v>
+        <v>0.98200454924994962</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="1"/>
-        <v>1.0502323301235365E-3</v>
+        <v>8.2211642378579076E-4</v>
       </c>
       <c r="J11" s="7">
         <f>alkavuus!H10</f>
@@ -16317,12 +16689,12 @@
         <v>2.231548480463097E-2</v>
       </c>
       <c r="F12" s="14">
-        <f>Yhteensä!D12+Yhteensä!E12</f>
-        <v>0.78955137481910276</v>
+        <f>Yhteensä!D12+Yhteensä!E12+Yhteensä!F12+Yhteensä!I12</f>
+        <v>0.9817076700434153</v>
       </c>
       <c r="G12" s="15">
         <f>F12+MAX(0,Yhteensä!H12-Yhteensä!J12)</f>
-        <v>0.78955137481910276</v>
+        <v>0.9817076700434153</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="1"/>
@@ -16347,12 +16719,12 @@
         <v>2.2090763603109281E-2</v>
       </c>
       <c r="F13" s="14">
-        <f>Yhteensä!D13+Yhteensä!E13</f>
-        <v>0.79538180155464111</v>
+        <f>Yhteensä!D13+Yhteensä!E13+Yhteensä!F13+Yhteensä!I13</f>
+        <v>0.981852994970279</v>
       </c>
       <c r="G13" s="15">
         <f>F13+MAX(0,Yhteensä!H13-Yhteensä!J13)</f>
-        <v>0.79538180155464111</v>
+        <v>0.981852994970279</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="1"/>
@@ -16377,16 +16749,16 @@
         <v>2.1391309416256228E-2</v>
       </c>
       <c r="F14" s="14">
-        <f>Yhteensä!D14+Yhteensä!E14</f>
-        <v>0.80435986360854494</v>
+        <f>Yhteensä!D14+Yhteensä!E14+Yhteensä!F14+Yhteensä!I14</f>
+        <v>0.98230991169527593</v>
       </c>
       <c r="G14" s="15">
         <f>F14+MAX(0,Yhteensä!H14-Yhteensä!J14)</f>
-        <v>0.80435986360854494</v>
+        <v>0.98230991169527593</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="1"/>
-        <v>4.3485212941980504E-5</v>
+        <v>3.5607662647560135E-5</v>
       </c>
       <c r="J14" s="7">
         <f>alkavuus!H13</f>
@@ -16407,16 +16779,16 @@
         <v>2.1426287176207228E-2</v>
       </c>
       <c r="F15" s="14">
-        <f>Yhteensä!D15+Yhteensä!E15</f>
-        <v>0.81280344216065348</v>
+        <f>Yhteensä!D15+Yhteensä!E15+Yhteensä!F15+Yhteensä!I15</f>
+        <v>0.98252754600691916</v>
       </c>
       <c r="G15" s="15">
         <f>F15+MAX(0,Yhteensä!H15-Yhteensä!J15)</f>
-        <v>0.81280344216065348</v>
+        <v>0.98252754600691916</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>3.5162608815876807E-3</v>
+        <v>2.9088537616116811E-3</v>
       </c>
       <c r="J15" s="7">
         <f>alkavuus!H14</f>
@@ -16437,12 +16809,12 @@
         <v>2.4284316124296549E-2</v>
       </c>
       <c r="F16" s="14">
-        <f>Yhteensä!D16+Yhteensä!E16</f>
-        <v>0.81985563983361887</v>
+        <f>Yhteensä!D16+Yhteensä!E16+Yhteensä!F16+Yhteensä!I16</f>
+        <v>0.98011989234157082</v>
       </c>
       <c r="G16" s="15">
         <f>F16+MAX(0,Yhteensä!H16-Yhteensä!J16)</f>
-        <v>0.81985563983361887</v>
+        <v>0.98011989234157082</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="1"/>
@@ -16467,16 +16839,16 @@
         <v>2.4004347957365862E-2</v>
       </c>
       <c r="F17" s="14">
-        <f>Yhteensä!D17+Yhteensä!E17</f>
-        <v>0.82396811497931699</v>
+        <f>Yhteensä!D17+Yhteensä!E17+Yhteensä!F17+Yhteensä!I17</f>
+        <v>0.98022283281500044</v>
       </c>
       <c r="G17" s="15">
         <f>F17+MAX(0,Yhteensä!H17-Yhteensä!J17)</f>
-        <v>0.82396811497931699</v>
+        <v>0.98022283281500044</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="1"/>
-        <v>8.2190081662750696E-5</v>
+        <v>6.9088379081283995E-5</v>
       </c>
       <c r="J17" s="7">
         <f>alkavuus!H16</f>
@@ -16497,16 +16869,16 @@
         <v>2.4072069964023515E-2</v>
       </c>
       <c r="F18" s="14">
-        <f>Yhteensä!D18+Yhteensä!E18</f>
-        <v>0.83158325777296793</v>
+        <f>Yhteensä!D18+Yhteensä!E18+Yhteensä!F18+Yhteensä!I18</f>
+        <v>0.98005206352920538</v>
       </c>
       <c r="G18" s="15">
         <f>F18+MAX(0,Yhteensä!H18-Yhteensä!J18)</f>
-        <v>0.83158325777296793</v>
+        <v>0.98005206352920538</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="1"/>
-        <v>2.2760469933652485E-3</v>
+        <v>1.9312469653614878E-3</v>
       </c>
       <c r="J18" s="7">
         <f>alkavuus!H17</f>
@@ -16527,16 +16899,16 @@
         <v>2.5964792537610557E-2</v>
       </c>
       <c r="F19" s="14">
-        <f>Yhteensä!D19+Yhteensä!E19</f>
-        <v>0.83883627676819383</v>
+        <f>Yhteensä!D19+Yhteensä!E19+Yhteensä!F19+Yhteensä!I19</f>
+        <v>0.97835793305463126</v>
       </c>
       <c r="G19" s="15">
         <f>F19+MAX(0,Yhteensä!H19-Yhteensä!J19)</f>
-        <v>0.83883627676819383</v>
+        <v>0.97835793305463126</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="1"/>
-        <v>4.4378871432492525E-4</v>
+        <v>3.8050089871891155E-4</v>
       </c>
       <c r="J19" s="7">
         <f>alkavuus!H18</f>
@@ -16557,16 +16929,16 @@
         <v>2.6337058610406621E-2</v>
       </c>
       <c r="F20" s="14">
-        <f>Yhteensä!D20+Yhteensä!E20</f>
-        <v>0.84679914160697867</v>
+        <f>Yhteensä!D20+Yhteensä!E20+Yhteensä!F20+Yhteensä!I20</f>
+        <v>0.97859591427217751</v>
       </c>
       <c r="G20" s="15">
         <f>F20+MAX(0,Yhteensä!H20-Yhteensä!J20)</f>
-        <v>0.84679914160697867</v>
+        <v>0.97859591427217751</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>2.4726525895241319E-3</v>
+        <v>2.1396370654772085E-3</v>
       </c>
       <c r="J20" s="7">
         <f>alkavuus!H19</f>
@@ -16587,12 +16959,12 @@
         <v>2.8430898700707929E-2</v>
       </c>
       <c r="F21" s="14">
-        <f>Yhteensä!D21+Yhteensä!E21</f>
-        <v>0.85639553066272422</v>
+        <f>Yhteensä!D21+Yhteensä!E21+Yhteensä!F21+Yhteensä!I21</f>
+        <v>0.97671509396412015</v>
       </c>
       <c r="G21" s="15">
         <f>F21+MAX(0,Yhteensä!H21-Yhteensä!J21)</f>
-        <v>0.85639553066272422</v>
+        <v>0.97671509396412015</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="1"/>
@@ -16617,16 +16989,16 @@
         <v>2.7014343120288623E-2</v>
       </c>
       <c r="F22" s="14">
-        <f>Yhteensä!D22+Yhteensä!E22</f>
-        <v>0.86293374006394274</v>
+        <f>Yhteensä!D22+Yhteensä!E22+Yhteensä!F22+Yhteensä!I22</f>
+        <v>0.97759070776992352</v>
       </c>
       <c r="G22" s="15">
         <f>F22+MAX(0,Yhteensä!H22-Yhteensä!J22)</f>
-        <v>0.86293374006394274</v>
+        <v>0.97759070776992352</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>1.8663476901883908E-3</v>
+        <v>1.6474526402035E-3</v>
       </c>
       <c r="J22" s="7">
         <f>alkavuus!H21</f>
@@ -16647,16 +17019,16 @@
         <v>2.8624877512842591E-2</v>
       </c>
       <c r="F23" s="14">
-        <f>Yhteensä!D23+Yhteensä!E23</f>
-        <v>0.86821866555809613</v>
+        <f>Yhteensä!D23+Yhteensä!E23+Yhteensä!F23+Yhteensä!I23</f>
+        <v>0.97707634290465317</v>
       </c>
       <c r="G23" s="15">
         <f>F23+MAX(0,Yhteensä!H23-Yhteensä!J23)</f>
-        <v>0.86821866555809613</v>
+        <v>0.97707634290465317</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="1"/>
-        <v>2.2694289590387286E-3</v>
+        <v>2.0165881578280928E-3</v>
       </c>
       <c r="J23" s="7">
         <f>alkavuus!H22</f>
@@ -16677,16 +17049,16 @@
         <v>3.0595238095238095E-2</v>
       </c>
       <c r="F24" s="14">
-        <f>Yhteensä!D24+Yhteensä!E24</f>
-        <v>0.87755952380952384</v>
+        <f>Yhteensä!D24+Yhteensä!E24+Yhteensä!F24+Yhteensä!I24</f>
+        <v>0.97574404761904765</v>
       </c>
       <c r="G24" s="15">
         <f>F24+MAX(0,Yhteensä!H24-Yhteensä!J24)</f>
-        <v>0.87755952380952384</v>
+        <v>0.97574404761904765</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="1"/>
-        <v>1.4805875024346995E-3</v>
+        <v>1.3316029616223747E-3</v>
       </c>
       <c r="J24" s="7">
         <f>alkavuus!H23</f>
@@ -16707,16 +17079,16 @@
         <v>3.1894541758833023E-2</v>
       </c>
       <c r="F25" s="14">
-        <f>Yhteensä!D25+Yhteensä!E25</f>
-        <v>0.88261493393914037</v>
+        <f>Yhteensä!D25+Yhteensä!E25+Yhteensä!F25+Yhteensä!I25</f>
+        <v>0.9745620852513901</v>
       </c>
       <c r="G25" s="15">
         <f>F25+MAX(0,Yhteensä!H25-Yhteensä!J25)</f>
-        <v>0.88261493393914037</v>
+        <v>0.9745620852513901</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="1"/>
-        <v>1.3957095101715079E-3</v>
+        <v>1.264028301286204E-3</v>
       </c>
       <c r="J25" s="7">
         <f>alkavuus!H24</f>
@@ -16737,16 +17109,16 @@
         <v>3.3126415815951278E-2</v>
       </c>
       <c r="F26" s="14">
-        <f>Yhteensä!D26+Yhteensä!E26</f>
-        <v>0.89120649583713341</v>
+        <f>Yhteensä!D26+Yhteensä!E26+Yhteensä!F26+Yhteensä!I26</f>
+        <v>0.97384601806360516</v>
       </c>
       <c r="G26" s="15">
         <f>F26+MAX(0,Yhteensä!H26-Yhteensä!J26)</f>
-        <v>0.89120649583713341</v>
+        <v>0.97384601806360516</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="1"/>
-        <v>2.1856681670651681E-3</v>
+        <v>2.0001947249382256E-3</v>
       </c>
       <c r="J26" s="7">
         <f>alkavuus!H25</f>
@@ -16767,16 +17139,16 @@
         <v>3.5074297484184197E-2</v>
       </c>
       <c r="F27" s="14">
-        <f>Yhteensä!D27+Yhteensä!E27</f>
-        <v>0.89660144181256429</v>
+        <f>Yhteensä!D27+Yhteensä!E27+Yhteensä!F27+Yhteensä!I27</f>
+        <v>0.9726055612770339</v>
       </c>
       <c r="G27" s="15">
         <f>F27+MAX(0,Yhteensä!H27-Yhteensä!J27)</f>
-        <v>0.89660144181256429</v>
+        <v>0.9726055612770339</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="1"/>
-        <v>2.003530996873362E-3</v>
+        <v>1.8469653598877055E-3</v>
       </c>
       <c r="J27" s="7">
         <f>alkavuus!H26</f>
@@ -16797,16 +17169,16 @@
         <v>3.6870666264697018E-2</v>
       </c>
       <c r="F28" s="14">
-        <f>Yhteensä!D28+Yhteensä!E28</f>
-        <v>0.89837202291227003</v>
+        <f>Yhteensä!D28+Yhteensä!E28+Yhteensä!F28+Yhteensä!I28</f>
+        <v>0.97132951462164607</v>
       </c>
       <c r="G28" s="15">
         <f>F28+MAX(0,Yhteensä!H28-Yhteensä!J28)</f>
-        <v>0.89837202291227003</v>
+        <v>0.97132951462164607</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="1"/>
-        <v>3.6628521482732859E-3</v>
+        <v>3.387731809379423E-3</v>
       </c>
       <c r="J28" s="7">
         <f>alkavuus!H27</f>
@@ -16827,16 +17199,16 @@
         <v>4.0161270158769843E-2</v>
       </c>
       <c r="F29" s="14">
-        <f>Yhteensä!D29+Yhteensä!E29</f>
-        <v>0.90039379922490315</v>
+        <f>Yhteensä!D29+Yhteensä!E29+Yhteensä!F29+Yhteensä!I29</f>
+        <v>0.96924615576947115</v>
       </c>
       <c r="G29" s="15">
         <f>F29+MAX(0,Yhteensä!H29-Yhteensä!J29)</f>
-        <v>0.90039379922490315</v>
+        <v>0.96924615576947115</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="1"/>
-        <v>3.2713006057966568E-3</v>
+        <v>3.0389171660130236E-3</v>
       </c>
       <c r="J29" s="7">
         <f>alkavuus!H28</f>
@@ -16857,16 +17229,16 @@
         <v>4.3106728939629822E-2</v>
       </c>
       <c r="F30" s="14">
-        <f>Yhteensä!D30+Yhteensä!E30</f>
-        <v>0.89967133713890335</v>
+        <f>Yhteensä!D30+Yhteensä!E30+Yhteensä!F30+Yhteensä!I30</f>
+        <v>0.96581906244594373</v>
       </c>
       <c r="G30" s="15">
         <f>F30+MAX(0,Yhteensä!H30-Yhteensä!J30)</f>
-        <v>0.89967133713890335</v>
+        <v>0.96581906244594373</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="1"/>
-        <v>3.6291553940261136E-3</v>
+        <v>3.380599133920159E-3</v>
       </c>
       <c r="J30" s="7">
         <f>alkavuus!H29</f>
@@ -16887,16 +17259,16 @@
         <v>4.637177602565816E-2</v>
       </c>
       <c r="F31" s="14">
-        <f>Yhteensä!D31+Yhteensä!E31</f>
-        <v>0.8994721368435119</v>
+        <f>Yhteensä!D31+Yhteensä!E31+Yhteensä!F31+Yhteensä!I31</f>
+        <v>0.9642857142857143</v>
       </c>
       <c r="G31" s="15">
         <f>F31+MAX(0,Yhteensä!H31-Yhteensä!J31)</f>
-        <v>0.8994721368435119</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="1"/>
-        <v>2.6900709391356544E-3</v>
+        <v>2.509260294991831E-3</v>
       </c>
       <c r="J31" s="7">
         <f>alkavuus!H30</f>
@@ -16917,16 +17289,16 @@
         <v>4.879141988154314E-2</v>
       </c>
       <c r="F32" s="14">
-        <f>Yhteensä!D32+Yhteensä!E32</f>
-        <v>0.90212902193052669</v>
+        <f>Yhteensä!D32+Yhteensä!E32+Yhteensä!F32+Yhteensä!I32</f>
+        <v>0.96206178965903633</v>
       </c>
       <c r="G32" s="15">
         <f>F32+MAX(0,Yhteensä!H32-Yhteensä!J32)</f>
-        <v>0.90212902193052669</v>
+        <v>0.96206178965903633</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="1"/>
-        <v>3.9779741218921817E-3</v>
+        <v>3.7301615576265526E-3</v>
       </c>
       <c r="J32" s="7">
         <f>alkavuus!H31</f>
@@ -16947,16 +17319,16 @@
         <v>5.238006578539068E-2</v>
       </c>
       <c r="F33" s="14">
-        <f>Yhteensä!D33+Yhteensä!E33</f>
-        <v>0.9007012970893068</v>
+        <f>Yhteensä!D33+Yhteensä!E33+Yhteensä!F33+Yhteensä!I33</f>
+        <v>0.95925650096195625</v>
       </c>
       <c r="G33" s="15">
         <f>F33+MAX(0,Yhteensä!H33-Yhteensä!J33)</f>
-        <v>0.9007012970893068</v>
+        <v>0.95925650096195625</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="1"/>
-        <v>5.0512233810107192E-3</v>
+        <v>4.7428851893124941E-3</v>
       </c>
       <c r="J33" s="7">
         <f>alkavuus!H32</f>
@@ -16977,16 +17349,16 @@
         <v>5.6929709236554868E-2</v>
       </c>
       <c r="F34" s="14">
-        <f>Yhteensä!D34+Yhteensä!E34</f>
-        <v>0.89815635796618465</v>
+        <f>Yhteensä!D34+Yhteensä!E34+Yhteensä!F34+Yhteensä!I34</f>
+        <v>0.95578928058213841</v>
       </c>
       <c r="G34" s="15">
         <f>F34+MAX(0,Yhteensä!H34-Yhteensä!J34)</f>
-        <v>0.89815635796618465</v>
+        <v>0.95578928058213841</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="1"/>
-        <v>3.0366303347500573E-3</v>
+        <v>2.853525245949192E-3</v>
       </c>
       <c r="J34" s="7">
         <f>alkavuus!H33</f>
@@ -17007,16 +17379,16 @@
         <v>5.9657078078503616E-2</v>
       </c>
       <c r="F35" s="14">
-        <f>Yhteensä!D35+Yhteensä!E35</f>
-        <v>0.89783193991781207</v>
+        <f>Yhteensä!D35+Yhteensä!E35+Yhteensä!F35+Yhteensä!I35</f>
+        <v>0.95275612866657222</v>
       </c>
       <c r="G35" s="15">
         <f>F35+MAX(0,Yhteensä!H35-Yhteensä!J35)</f>
-        <v>0.89783193991781207</v>
+        <v>0.95275612866657222</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="1"/>
-        <v>8.09750674982938E-3</v>
+        <v>7.6307042011599362E-3</v>
       </c>
       <c r="J35" s="7">
         <f>alkavuus!H34</f>
@@ -17037,16 +17409,16 @@
         <v>6.6927278272200505E-2</v>
       </c>
       <c r="F36" s="14">
-        <f>Yhteensä!D36+Yhteensä!E36</f>
-        <v>0.89741883611965945</v>
+        <f>Yhteensä!D36+Yhteensä!E36+Yhteensä!F36+Yhteensä!I36</f>
+        <v>0.94848762094873706</v>
       </c>
       <c r="G36" s="15">
         <f>F36+MAX(0,Yhteensä!H36-Yhteensä!J36)</f>
-        <v>0.89741883611965945</v>
+        <v>0.94848762094873706</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="1"/>
-        <v>4.9127871350845781E-3</v>
+        <v>4.6482712219915439E-3</v>
       </c>
       <c r="J36" s="7">
         <f>alkavuus!H35</f>
@@ -17067,16 +17439,16 @@
         <v>7.1336105985071743E-2</v>
       </c>
       <c r="F37" s="14">
-        <f>Yhteensä!D37+Yhteensä!E37</f>
-        <v>0.89360178477979457</v>
+        <f>Yhteensä!D37+Yhteensä!E37+Yhteensä!F37+Yhteensä!I37</f>
+        <v>0.94472140358608536</v>
       </c>
       <c r="G37" s="15">
         <f>F37+MAX(0,Yhteensä!H37-Yhteensä!J37)</f>
-        <v>0.89360178477979457</v>
+        <v>0.94472140358608536</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="1"/>
-        <v>5.0083555990203879E-3</v>
+        <v>4.737349535120043E-3</v>
       </c>
       <c r="J37" s="7">
         <f>alkavuus!H36</f>
@@ -17097,16 +17469,16 @@
         <v>7.5811581487168239E-2</v>
       </c>
       <c r="F38" s="14">
-        <f>Yhteensä!D38+Yhteensä!E38</f>
-        <v>0.89142355779776261</v>
+        <f>Yhteensä!D38+Yhteensä!E38+Yhteensä!F38+Yhteensä!I38</f>
+        <v>0.94236674709366086</v>
       </c>
       <c r="G38" s="15">
         <f>F38+MAX(0,Yhteensä!H38-Yhteensä!J38)</f>
-        <v>0.89142355779776261</v>
+        <v>0.94236674709366086</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="1"/>
-        <v>7.5361730631817916E-3</v>
+        <v>7.128776800412173E-3</v>
       </c>
       <c r="J38" s="7">
         <f>alkavuus!H37</f>
@@ -17127,16 +17499,16 @@
         <v>8.2529503691329414E-2</v>
       </c>
       <c r="F39" s="14">
-        <f>Yhteensä!D39+Yhteensä!E39</f>
-        <v>0.88613461227569112</v>
+        <f>Yhteensä!D39+Yhteensä!E39+Yhteensä!F39+Yhteensä!I39</f>
+        <v>0.93781322412027812</v>
       </c>
       <c r="G39" s="15">
         <f>F39+MAX(0,Yhteensä!H39-Yhteensä!J39)</f>
-        <v>0.88613461227569112</v>
+        <v>0.93781322412027812</v>
       </c>
       <c r="I39" s="7">
         <f t="shared" si="1"/>
-        <v>7.6184520293896369E-3</v>
+        <v>7.1986338660738483E-3</v>
       </c>
       <c r="J39" s="7">
         <f>alkavuus!H38</f>
@@ -17157,16 +17529,16 @@
         <v>8.9280477726533553E-2</v>
       </c>
       <c r="F40" s="14">
-        <f>Yhteensä!D40+Yhteensä!E40</f>
-        <v>0.88374076937431689</v>
+        <f>Yhteensä!D40+Yhteensä!E40+Yhteensä!F40+Yhteensä!I40</f>
+        <v>0.93391271893577887</v>
       </c>
       <c r="G40" s="15">
         <f>F40+MAX(0,Yhteensä!H40-Yhteensä!J40)</f>
-        <v>0.88374076937431689</v>
+        <v>0.93391271893577887</v>
       </c>
       <c r="I40" s="7">
         <f t="shared" si="1"/>
-        <v>1.7496524206384891E-2</v>
+        <v>1.6556570491027035E-2</v>
       </c>
       <c r="J40" s="7">
         <f>alkavuus!H39</f>
@@ -17187,16 +17559,16 @@
         <v>0.10474286949006049</v>
       </c>
       <c r="F41" s="14">
-        <f>Yhteensä!D41+Yhteensä!E41</f>
-        <v>0.87216400172860853</v>
+        <f>Yhteensä!D41+Yhteensä!E41+Yhteensä!F41+Yhteensä!I41</f>
+        <v>0.92259075194468454</v>
       </c>
       <c r="G41" s="15">
         <f>F41+MAX(0,Yhteensä!H41-Yhteensä!J41)</f>
-        <v>0.87216400172860853</v>
+        <v>0.92259075194468454</v>
       </c>
       <c r="I41" s="7">
         <f t="shared" si="1"/>
-        <v>1.2431715094054616E-2</v>
+        <v>1.1752225308920826E-2</v>
       </c>
       <c r="J41" s="7">
         <f>alkavuus!H40</f>
@@ -17217,16 +17589,16 @@
         <v>0.11558536387484111</v>
       </c>
       <c r="F42" s="14">
-        <f>Yhteensä!D42+Yhteensä!E42</f>
-        <v>0.86683614138518539</v>
+        <f>Yhteensä!D42+Yhteensä!E42+Yhteensä!F42+Yhteensä!I42</f>
+        <v>0.91540687454363523</v>
       </c>
       <c r="G42" s="15">
         <f>F42+MAX(0,Yhteensä!H42-Yhteensä!J42)</f>
-        <v>0.86683614138518539</v>
+        <v>0.91540687454363523</v>
       </c>
       <c r="I42" s="7">
         <f t="shared" si="1"/>
-        <v>2.0801345241754369E-2</v>
+        <v>1.9697643033293532E-2</v>
       </c>
       <c r="J42" s="7">
         <f>alkavuus!H41</f>
@@ -17247,16 +17619,16 @@
         <v>0.13361672171982455</v>
       </c>
       <c r="F43" s="14">
-        <f>Yhteensä!D43+Yhteensä!E43</f>
-        <v>0.85541777224237836</v>
+        <f>Yhteensä!D43+Yhteensä!E43+Yhteensä!F43+Yhteensä!I43</f>
+        <v>0.90328694427898415</v>
       </c>
       <c r="G43" s="15">
         <f>F43+MAX(0,Yhteensä!H43-Yhteensä!J43)</f>
-        <v>0.85541777224237836</v>
+        <v>0.90328694427898415</v>
       </c>
       <c r="I43" s="7">
         <f t="shared" si="1"/>
-        <v>2.5163257941075913E-2</v>
+        <v>2.3829745560528519E-2</v>
       </c>
       <c r="J43" s="7">
         <f>alkavuus!H42</f>
@@ -17277,16 +17649,16 @@
         <v>0.15514181977014005</v>
       </c>
       <c r="F44" s="14">
-        <f>Yhteensä!D44+Yhteensä!E44</f>
-        <v>0.84103628074581638</v>
+        <f>Yhteensä!D44+Yhteensä!E44+Yhteensä!F44+Yhteensä!I44</f>
+        <v>0.88850973219404328</v>
       </c>
       <c r="G44" s="15">
         <f>F44+MAX(0,Yhteensä!H44-Yhteensä!J44)</f>
-        <v>0.84103628074581638</v>
+        <v>0.88850973219404328</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" si="1"/>
-        <v>2.7521297922638733E-2</v>
+        <v>2.6050823313996808E-2</v>
       </c>
       <c r="J44" s="7">
         <f>alkavuus!H43</f>
@@ -17307,16 +17679,16 @@
         <v>0.17828822981629369</v>
       </c>
       <c r="F45" s="14">
-        <f>Yhteensä!D45+Yhteensä!E45</f>
-        <v>0.81132714394559358</v>
+        <f>Yhteensä!D45+Yhteensä!E45+Yhteensä!F45+Yhteensä!I45</f>
+        <v>0.85834015294748423</v>
       </c>
       <c r="G45" s="15">
         <f>F45+MAX(0,Yhteensä!H45-Yhteensä!J45)</f>
-        <v>0.81132714394559358</v>
+        <v>0.85834015294748423</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="1"/>
-        <v>3.9852895183333091E-2</v>
+        <v>3.7670072308775018E-2</v>
       </c>
       <c r="J45" s="7">
         <f>alkavuus!H44</f>
@@ -17337,16 +17709,16 @@
         <v>0.21062196544335043</v>
       </c>
       <c r="F46" s="14">
-        <f>Yhteensä!D46+Yhteensä!E46</f>
-        <v>0.78002007215124636</v>
+        <f>Yhteensä!D46+Yhteensä!E46+Yhteensä!F46+Yhteensä!I46</f>
+        <v>0.82301245015867841</v>
       </c>
       <c r="G46" s="15">
         <f>F46+MAX(0,Yhteensä!H46-Yhteensä!J46)</f>
-        <v>0.78002007215124636</v>
+        <v>0.82301245015867841</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="1"/>
-        <v>2.3791604087010407E-2</v>
+        <v>2.2548782503795342E-2</v>
       </c>
       <c r="J46" s="7">
         <f>alkavuus!H45</f>
@@ -17367,16 +17739,16 @@
         <v>0.22917989417989418</v>
       </c>
       <c r="F47" s="14">
-        <f>Yhteensä!D47+Yhteensä!E47</f>
-        <v>0.70140211640211636</v>
+        <f>Yhteensä!D47+Yhteensä!E47+Yhteensä!F47+Yhteensä!I47</f>
+        <v>0.74224867724867716</v>
       </c>
       <c r="G47" s="15">
         <f>F47+MAX(0,Yhteensä!H47-Yhteensä!J47)</f>
-        <v>0.72997354497354494</v>
+        <v>0.77082010582010574</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="1"/>
-        <v>2.5422741501154408E-2</v>
+        <v>2.4075563930444233E-2</v>
       </c>
       <c r="J47" s="7">
         <f>alkavuus!H46</f>
@@ -17397,16 +17769,16 @@
         <v>0.24773782291643792</v>
       </c>
       <c r="F48" s="14">
-        <f>Yhteensä!D48+Yhteensä!E48</f>
-        <v>0.45760721624723122</v>
+        <f>Yhteensä!D48+Yhteensä!E48+Yhteensä!F48+Yhteensä!I48</f>
+        <v>0.48207947479384061</v>
       </c>
       <c r="G48" s="15">
         <f>F48+MAX(0,Yhteensä!H48-Yhteensä!J48)</f>
-        <v>0.83211016519441694</v>
+        <v>0.85658242374102644</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="1"/>
-        <v>2.2302249765459647E-2</v>
+        <v>2.1665082334393609E-2</v>
       </c>
       <c r="J48" s="7">
         <f>alkavuus!H47</f>
@@ -17427,16 +17799,16 @@
         <v>0.26629575165298169</v>
       </c>
       <c r="F49" s="14">
-        <f>Yhteensä!D49+Yhteensä!E49</f>
-        <v>0.25098204634731486</v>
+        <f>Yhteensä!D49+Yhteensä!E49+Yhteensä!F49+Yhteensä!I49</f>
+        <v>0.26500751364319425</v>
       </c>
       <c r="G49" s="15">
         <f>F49+MAX(0,Yhteensä!H49-Yhteensä!J49)</f>
-        <v>0.85581714165194689</v>
+        <v>0.86984260894782639</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="1"/>
-        <v>2.1684455514319505E-2</v>
+        <v>2.1334812235734971E-2</v>
       </c>
       <c r="J49" s="7">
         <f>alkavuus!H48</f>
@@ -17457,16 +17829,16 @@
         <v>0.28485368038952541</v>
       </c>
       <c r="F50" s="14">
-        <f>Yhteensä!D50+Yhteensä!E50</f>
-        <v>0.13579511614055986</v>
+        <f>Yhteensä!D50+Yhteensä!E50+Yhteensä!F50+Yhteensä!I50</f>
+        <v>0.14491851210135906</v>
       </c>
       <c r="G50" s="15">
         <f>F50+MAX(0,Yhteensä!H50-Yhteensä!J50)</f>
-        <v>0.97980399588499645</v>
+        <v>0.9889273918457957</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="1"/>
-        <v>1.8940450145624774E-2</v>
+        <v>1.8765714135904398E-2</v>
       </c>
       <c r="J50" s="7">
         <f>alkavuus!H49</f>
@@ -17487,16 +17859,16 @@
         <v>0.30341160912606913</v>
       </c>
       <c r="F51" s="14">
-        <f>Yhteensä!D51+Yhteensä!E51</f>
-        <v>9.7568685298843605E-2</v>
+        <f>Yhteensä!D51+Yhteensä!E51+Yhteensä!F51+Yhteensä!I51</f>
+        <v>0.10394331322603587</v>
       </c>
       <c r="G51" s="15">
         <f>F51+MAX(0,Yhteensä!H51-Yhteensä!J51)</f>
-        <v>0.99362537207280766</v>
+        <v>1</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="1"/>
-        <v>1.8676987583187327E-2</v>
+        <v>1.8557928736543716E-2</v>
       </c>
       <c r="J51" s="7">
         <f>alkavuus!H50</f>
@@ -17517,16 +17889,16 @@
         <v>0.32196953786261284</v>
       </c>
       <c r="F52" s="14">
-        <f>Yhteensä!D52+Yhteensä!E52</f>
-        <v>7.9125270273968859E-2</v>
+        <f>Yhteensä!D52+Yhteensä!E52+Yhteensä!F52+Yhteensä!I52</f>
+        <v>8.4325478282289187E-2</v>
       </c>
       <c r="G52" s="15">
         <f>F52+MAX(0,Yhteensä!H52-Yhteensä!J52)</f>
-        <v>0.99479979199167967</v>
+        <v>1</v>
       </c>
       <c r="I52" s="7">
         <f t="shared" si="1"/>
-        <v>1.8654938296065637E-2</v>
+        <v>1.8557928736543716E-2</v>
       </c>
       <c r="J52" s="7">
         <f>alkavuus!H51</f>
@@ -17547,16 +17919,16 @@
         <v>0.34052746659915656</v>
       </c>
       <c r="F53" s="14">
-        <f>Yhteensä!D53+Yhteensä!E53</f>
-        <v>1.136996103999364E-2</v>
+        <f>Yhteensä!D53+Yhteensä!E53+Yhteensä!F53+Yhteensä!I53</f>
+        <v>1.6511621743394028E-2</v>
       </c>
       <c r="G53" s="15">
         <f>F53+MAX(0,Yhteensä!H53-Yhteensä!J53)</f>
-        <v>0.99485833929659961</v>
+        <v>1</v>
       </c>
       <c r="I53" s="7">
         <f t="shared" si="1"/>
-        <v>1.8653840454978581E-2</v>
+        <v>1.8557928736543716E-2</v>
       </c>
       <c r="J53" s="7">
         <f>alkavuus!H52</f>
@@ -17577,16 +17949,16 @@
         <v>0.35908539533570027</v>
       </c>
       <c r="F54" s="14">
-        <f>Yhteensä!D54+Yhteensä!E54</f>
-        <v>3.5860787905368798E-3</v>
+        <f>Yhteensä!D54+Yhteensä!E54+Yhteensä!F54+Yhteensä!I54</f>
+        <v>8.5653104925053538E-3</v>
       </c>
       <c r="G54" s="15">
         <f>F54+MAX(0,Yhteensä!H54-Yhteensä!J54)</f>
-        <v>0.99502076829803154</v>
+        <v>1</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="1"/>
-        <v>1.8650795368107525E-2</v>
+        <v>1.8557928736543716E-2</v>
       </c>
       <c r="J54" s="7">
         <f>alkavuus!H53</f>
@@ -17607,12 +17979,12 @@
         <v>0.37764332407224399</v>
       </c>
       <c r="F55" s="14">
-        <f>Yhteensä!D55+Yhteensä!E55</f>
-        <v>2.2356587571769728E-3</v>
+        <f>Yhteensä!D55+Yhteensä!E55+Yhteensä!F55+Yhteensä!I55</f>
+        <v>7.5961587317717599E-3</v>
       </c>
       <c r="G55" s="15">
         <f>F55+MAX(0,Yhteensä!H55-Yhteensä!J55)</f>
-        <v>0.99463950002540524</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17624,7 +17996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B427A9-DBD4-474A-8D31-8DEE213D8D65}">
   <dimension ref="B3:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -17633,7 +18005,7 @@
     <col min="1" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" s="7" customFormat="1">
+    <row r="3" spans="2:12">
       <c r="C3" s="7" t="s">
         <v>96</v>
       </c>
@@ -17641,7 +18013,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="2:12" s="7" customFormat="1" ht="16">
+    <row r="4" spans="2:12" ht="16">
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
         <v>98</v>
@@ -17661,7 +18033,7 @@
       <c r="K4" s="16"/>
       <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="2:12" s="7" customFormat="1" ht="16">
+    <row r="5" spans="2:12" ht="16">
       <c r="B5" s="16" t="s">
         <v>101</v>
       </c>
@@ -17686,7 +18058,7 @@
       <c r="K5" s="16"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="2:12" s="7" customFormat="1" ht="16">
+    <row r="6" spans="2:12" ht="16">
       <c r="B6" s="16" t="s">
         <v>102</v>
       </c>
@@ -17711,7 +18083,7 @@
       <c r="K6" s="16"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="2:12" s="7" customFormat="1" ht="16">
+    <row r="7" spans="2:12" ht="16">
       <c r="B7" s="16" t="s">
         <v>103</v>
       </c>
@@ -17736,7 +18108,7 @@
       <c r="K7" s="16"/>
       <c r="L7" s="17"/>
     </row>
-    <row r="8" spans="2:12" s="7" customFormat="1" ht="16">
+    <row r="8" spans="2:12" ht="16">
       <c r="B8" s="16" t="s">
         <v>104</v>
       </c>
@@ -17761,7 +18133,7 @@
       <c r="K8" s="16"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="2:12" s="7" customFormat="1" ht="16">
+    <row r="9" spans="2:12" ht="16">
       <c r="B9" s="16" t="s">
         <v>105</v>
       </c>
@@ -17786,7 +18158,7 @@
       <c r="K9" s="16"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="2:12" s="7" customFormat="1" ht="16">
+    <row r="10" spans="2:12" ht="16">
       <c r="B10" s="16" t="s">
         <v>106</v>
       </c>
@@ -17811,7 +18183,7 @@
       <c r="K10" s="16"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="2:12" s="7" customFormat="1" ht="16">
+    <row r="11" spans="2:12" ht="16">
       <c r="K11" s="16"/>
       <c r="L11" s="17"/>
     </row>

--- a/intensities/tilastokeskus data väestörakenne 2018 naiset.xlsx
+++ b/intensities/tilastokeskus data väestörakenne 2018 naiset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F70B90D-387B-A74B-851E-7EBD58BA23EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF20844-469E-C148-A2A8-DA1C09750049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="1160" windowWidth="20620" windowHeight="14600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,14 +415,15 @@
     <t>ei-opisk</t>
   </si>
   <si>
-    <t>vanh.vapaat</t>
+    <t>vanh.vapaat mukana työllisissä</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -492,12 +493,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
@@ -520,11 +522,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
     <cellStyle name="Pilkku" xfId="1" builtinId="3"/>
     <cellStyle name="Prosenttia" xfId="2" builtinId="5"/>
+    <cellStyle name="Valuutta" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12500,9 +12505,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446C12A0-C80E-B64C-BEF9-F9B58C29F90E}">
-  <dimension ref="A1:P350"/>
+  <dimension ref="A1:Q350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="102" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -12517,9 +12522,10 @@
     <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19">
+    <row r="1" spans="1:17" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12527,12 +12533,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="2" spans="1:17">
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="D4" s="2" t="s">
         <v>81</v>
       </c>
@@ -12563,11 +12572,11 @@
       <c r="O4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -12611,14 +12620,15 @@
         <v>0.62663951401353035</v>
       </c>
       <c r="O5" s="19">
-        <f>E5+D5</f>
-        <v>0.62663951401353035</v>
-      </c>
-      <c r="P5" s="7">
-        <v>6.1131900000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <f>E5+D5-P5</f>
+        <v>0.6211602827135303</v>
+      </c>
+      <c r="P5" s="21">
+        <v>5.4792312999999999E-3</v>
+      </c>
+      <c r="Q5" s="21"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -12659,14 +12669,15 @@
         <v>0.62954259614748131</v>
       </c>
       <c r="O6" s="19">
-        <f t="shared" ref="O6:O55" si="0">E6+D6</f>
-        <v>0.62954259614748131</v>
-      </c>
-      <c r="P6" s="7">
-        <v>2.8002369999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <f t="shared" ref="O6:O55" si="0">E6+D6-P6</f>
+        <v>0.62221009543748129</v>
+      </c>
+      <c r="P6" s="21">
+        <v>7.3325007100000002E-3</v>
+      </c>
+      <c r="Q6" s="21"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -12708,13 +12719,14 @@
       </c>
       <c r="O7" s="19">
         <f t="shared" si="0"/>
-        <v>0.64597380705394192</v>
-      </c>
-      <c r="P7" s="7">
-        <v>3.9637150000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>0.63654630614394192</v>
+      </c>
+      <c r="P7" s="21">
+        <v>9.4275009100000008E-3</v>
+      </c>
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -12756,13 +12768,14 @@
       </c>
       <c r="O8" s="19">
         <f t="shared" si="0"/>
-        <v>0.68066732697783827</v>
-      </c>
-      <c r="P8" s="7">
-        <v>5.7582330000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>0.6691448258778383</v>
+      </c>
+      <c r="P8" s="21">
+        <v>1.1522501100000001E-2</v>
+      </c>
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -12804,13 +12817,14 @@
       </c>
       <c r="O9" s="19">
         <f t="shared" si="0"/>
-        <v>0.72610705233338302</v>
-      </c>
-      <c r="P9" s="7">
-        <v>6.1329130000000003E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>0.71281185873338304</v>
+      </c>
+      <c r="P9" s="21">
+        <v>1.32951936E-2</v>
+      </c>
+      <c r="Q9" s="21"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
@@ -12852,13 +12866,14 @@
       </c>
       <c r="O10" s="19">
         <f t="shared" si="0"/>
-        <v>0.75079492437074669</v>
-      </c>
-      <c r="P10" s="7">
-        <v>6.1526329999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>0.73584790367074671</v>
+      </c>
+      <c r="P10" s="21">
+        <v>1.4947020700000001E-2</v>
+      </c>
+      <c r="Q10" s="21"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
@@ -12900,13 +12915,14 @@
       </c>
       <c r="O11" s="19">
         <f t="shared" si="0"/>
-        <v>0.76870807059975244</v>
-      </c>
-      <c r="P11" s="7">
-        <v>7.6513510000000007E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>0.75243153059975243</v>
+      </c>
+      <c r="P11" s="21">
+        <v>1.6276539999999999E-2</v>
+      </c>
+      <c r="Q11" s="21"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
@@ -12948,13 +12964,14 @@
       </c>
       <c r="O12" s="19">
         <f t="shared" si="0"/>
-        <v>0.78955137481910276</v>
-      </c>
-      <c r="P12" s="7">
-        <v>7.94715E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>0.7704949307191028</v>
+      </c>
+      <c r="P12" s="21">
+        <v>1.90564441E-2</v>
+      </c>
+      <c r="Q12" s="21"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
@@ -12996,13 +13013,14 @@
       </c>
       <c r="O13" s="19">
         <f t="shared" si="0"/>
-        <v>0.79538180155464111</v>
-      </c>
-      <c r="P13" s="7">
-        <v>8.8542689999999993E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>0.77306199175464108</v>
+      </c>
+      <c r="P13" s="21">
+        <v>2.23198098E-2</v>
+      </c>
+      <c r="Q13" s="21"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
@@ -13044,13 +13062,14 @@
       </c>
       <c r="O14" s="19">
         <f t="shared" si="0"/>
-        <v>0.80435986360854494</v>
-      </c>
-      <c r="P14" s="7">
-        <v>9.9388679999999993E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>0.78159688060854493</v>
+      </c>
+      <c r="P14" s="21">
+        <v>2.2762983000000001E-2</v>
+      </c>
+      <c r="Q14" s="21"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
@@ -13092,13 +13111,14 @@
       </c>
       <c r="O15" s="19">
         <f t="shared" si="0"/>
-        <v>0.81280344216065348</v>
-      </c>
-      <c r="P15" s="7">
-        <v>9.2881089999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>0.78963757456065342</v>
+      </c>
+      <c r="P15" s="21">
+        <v>2.3165867600000001E-2</v>
+      </c>
+      <c r="Q15" s="21"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
@@ -13140,13 +13160,14 @@
       </c>
       <c r="O16" s="19">
         <f t="shared" si="0"/>
-        <v>0.81985563983361887</v>
-      </c>
-      <c r="P16" s="7">
-        <v>0.10629067</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16">
+        <v>0.79580342593361886</v>
+      </c>
+      <c r="P16" s="21">
+        <v>2.4052213900000001E-2</v>
+      </c>
+      <c r="Q16" s="21"/>
+    </row>
+    <row r="17" spans="3:17">
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
@@ -13188,13 +13209,14 @@
       </c>
       <c r="O17" s="19">
         <f t="shared" si="0"/>
-        <v>0.82396811497931699</v>
-      </c>
-      <c r="P17" s="7">
-        <v>0.10017748</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16">
+        <v>0.80197061287931704</v>
+      </c>
+      <c r="P17" s="21">
+        <v>2.19975021E-2</v>
+      </c>
+      <c r="Q17" s="21"/>
+    </row>
+    <row r="18" spans="3:17">
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
@@ -13236,13 +13258,14 @@
       </c>
       <c r="O18" s="19">
         <f t="shared" si="0"/>
-        <v>0.83158325777296793</v>
-      </c>
-      <c r="P18" s="7">
-        <v>9.4064289999999995E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16">
+        <v>0.81014979417296795</v>
+      </c>
+      <c r="P18" s="21">
+        <v>2.1433463600000001E-2</v>
+      </c>
+      <c r="Q18" s="21"/>
+    </row>
+    <row r="19" spans="3:17">
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
@@ -13284,13 +13307,14 @@
       </c>
       <c r="O19" s="19">
         <f t="shared" si="0"/>
-        <v>0.83883627676819383</v>
-      </c>
-      <c r="P19" s="7">
-        <v>8.55847E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16">
+        <v>0.82014242876819388</v>
+      </c>
+      <c r="P19" s="21">
+        <v>1.8693847999999999E-2</v>
+      </c>
+      <c r="Q19" s="21"/>
+    </row>
+    <row r="20" spans="3:17">
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
@@ -13332,13 +13356,14 @@
       </c>
       <c r="O20" s="19">
         <f t="shared" si="0"/>
-        <v>0.84679914160697867</v>
-      </c>
-      <c r="P20" s="7">
-        <v>7.118911E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16">
+        <v>0.83237587100697863</v>
+      </c>
+      <c r="P20" s="21">
+        <v>1.44232706E-2</v>
+      </c>
+      <c r="Q20" s="21"/>
+    </row>
+    <row r="21" spans="3:17">
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
@@ -13380,13 +13405,14 @@
       </c>
       <c r="O21" s="19">
         <f t="shared" si="0"/>
-        <v>0.85639553066272422</v>
-      </c>
-      <c r="P21" s="7">
-        <v>6.5470319999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16">
+        <v>0.84265716396272428</v>
+      </c>
+      <c r="P21" s="21">
+        <v>1.3738366700000001E-2</v>
+      </c>
+      <c r="Q21" s="21"/>
+    </row>
+    <row r="22" spans="3:17">
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
@@ -13428,13 +13454,14 @@
       </c>
       <c r="O22" s="19">
         <f t="shared" si="0"/>
-        <v>0.86293374006394274</v>
-      </c>
-      <c r="P22" s="7">
-        <v>6.6850720000000002E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16">
+        <v>0.8507263350639428</v>
+      </c>
+      <c r="P22" s="21">
+        <v>1.2207404999999999E-2</v>
+      </c>
+      <c r="Q22" s="21"/>
+    </row>
+    <row r="23" spans="3:17">
       <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
@@ -13476,13 +13503,14 @@
       </c>
       <c r="O23" s="19">
         <f t="shared" si="0"/>
-        <v>0.86821866555809613</v>
-      </c>
-      <c r="P23" s="7">
-        <v>4.6144739999999997E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16">
+        <v>0.85867029925809613</v>
+      </c>
+      <c r="P23" s="21">
+        <v>9.5483662999999996E-3</v>
+      </c>
+      <c r="Q23" s="21"/>
+    </row>
+    <row r="24" spans="3:17">
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
@@ -13524,13 +13552,14 @@
       </c>
       <c r="O24" s="19">
         <f t="shared" si="0"/>
-        <v>0.87755952380952384</v>
-      </c>
-      <c r="P24" s="7">
-        <v>4.1214750000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16">
+        <v>0.8706701962195238</v>
+      </c>
+      <c r="P24" s="21">
+        <v>6.88932759E-3</v>
+      </c>
+      <c r="Q24" s="21"/>
+    </row>
+    <row r="25" spans="3:17">
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
@@ -13572,13 +13601,14 @@
       </c>
       <c r="O25" s="19">
         <f t="shared" si="0"/>
-        <v>0.88261493393914037</v>
-      </c>
-      <c r="P25" s="7">
-        <v>3.3326759999999997E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16">
+        <v>0.87657166412914034</v>
+      </c>
+      <c r="P25" s="21">
+        <v>6.0432698099999998E-3</v>
+      </c>
+      <c r="Q25" s="21"/>
+    </row>
+    <row r="26" spans="3:17">
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
@@ -13620,13 +13650,14 @@
       </c>
       <c r="O26" s="19">
         <f t="shared" si="0"/>
-        <v>0.89120649583713341</v>
-      </c>
-      <c r="P26" s="7">
-        <v>2.287517E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16">
+        <v>0.88721793775713342</v>
+      </c>
+      <c r="P26" s="21">
+        <v>3.9885580800000002E-3</v>
+      </c>
+      <c r="Q26" s="21"/>
+    </row>
+    <row r="27" spans="3:17">
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
@@ -13668,13 +13699,14 @@
       </c>
       <c r="O27" s="19">
         <f t="shared" si="0"/>
-        <v>0.89660144181256429</v>
-      </c>
-      <c r="P27" s="7">
-        <v>1.597318E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16">
+        <v>0.89426471082256431</v>
+      </c>
+      <c r="P27" s="21">
+        <v>2.3367309899999999E-3</v>
+      </c>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="3:17">
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
@@ -13716,13 +13748,14 @@
       </c>
       <c r="O28" s="19">
         <f t="shared" si="0"/>
-        <v>0.89837202291227003</v>
-      </c>
-      <c r="P28" s="7">
-        <v>1.045159E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:16">
+        <v>0.89663961890227006</v>
+      </c>
+      <c r="P28" s="21">
+        <v>1.7324040100000001E-3</v>
+      </c>
+      <c r="Q28" s="21"/>
+    </row>
+    <row r="29" spans="3:17">
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
@@ -13764,13 +13797,14 @@
       </c>
       <c r="O29" s="19">
         <f t="shared" si="0"/>
-        <v>0.90039379922490315</v>
-      </c>
-      <c r="P29" s="7">
-        <v>6.5075899999999997E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16">
+        <v>0.89918514526490312</v>
+      </c>
+      <c r="P29" s="21">
+        <v>1.2086539599999999E-3</v>
+      </c>
+      <c r="Q29" s="21"/>
+    </row>
+    <row r="30" spans="3:17">
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
@@ -13812,13 +13846,14 @@
       </c>
       <c r="O30" s="19">
         <f t="shared" si="0"/>
-        <v>0.89967133713890335</v>
-      </c>
-      <c r="P30" s="7">
-        <v>3.1551999999999999E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16">
+        <v>0.8991475870889033</v>
+      </c>
+      <c r="P30" s="21">
+        <v>5.2375005000000004E-4</v>
+      </c>
+      <c r="Q30" s="21"/>
+    </row>
+    <row r="31" spans="3:17">
       <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
@@ -13860,13 +13895,14 @@
       </c>
       <c r="O31" s="19">
         <f t="shared" si="0"/>
-        <v>0.8994721368435119</v>
-      </c>
-      <c r="P31" s="7">
-        <v>3.3524000000000002E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16">
+        <v>0.89931098298151191</v>
+      </c>
+      <c r="P31" s="21">
+        <v>1.61153862E-4</v>
+      </c>
+      <c r="Q31" s="21"/>
+    </row>
+    <row r="32" spans="3:17">
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
@@ -13908,13 +13944,14 @@
       </c>
       <c r="O32" s="19">
         <f t="shared" si="0"/>
-        <v>0.90212902193052669</v>
-      </c>
-      <c r="P32" s="7">
-        <v>9.859999999999999E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="3:16">
+        <v>0.90208873346512664</v>
+      </c>
+      <c r="P32" s="21">
+        <v>4.0288465400000003E-5</v>
+      </c>
+      <c r="Q32" s="21"/>
+    </row>
+    <row r="33" spans="3:17">
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
@@ -13958,11 +13995,12 @@
         <f t="shared" si="0"/>
         <v>0.9007012970893068</v>
       </c>
-      <c r="P33" s="7">
-        <v>1.1831999999999999E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="3:16">
+      <c r="P33" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="21"/>
+    </row>
+    <row r="34" spans="3:17">
       <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
@@ -14004,13 +14042,14 @@
       </c>
       <c r="O34" s="19">
         <f t="shared" si="0"/>
-        <v>0.89815635796618465</v>
-      </c>
-      <c r="P34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:16">
+        <v>0.89807578103538466</v>
+      </c>
+      <c r="P34" s="21">
+        <v>8.0576930800000006E-5</v>
+      </c>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="3:17">
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
@@ -14054,11 +14093,12 @@
         <f t="shared" si="0"/>
         <v>0.89783193991781207</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="3:16">
+      <c r="Q35" s="21"/>
+    </row>
+    <row r="36" spans="3:17">
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
@@ -14102,11 +14142,12 @@
         <f t="shared" si="0"/>
         <v>0.89741883611965945</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="3:16">
+      <c r="Q36" s="21"/>
+    </row>
+    <row r="37" spans="3:17">
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
@@ -14150,11 +14191,12 @@
         <f t="shared" si="0"/>
         <v>0.89360178477979457</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="3:16">
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="3:17">
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
@@ -14198,11 +14240,12 @@
         <f t="shared" si="0"/>
         <v>0.89142355779776261</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="3:16">
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="3:17">
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
@@ -14246,11 +14289,12 @@
         <f t="shared" si="0"/>
         <v>0.88613461227569112</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="3:16">
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" spans="3:17">
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
@@ -14294,11 +14338,12 @@
         <f t="shared" si="0"/>
         <v>0.88374076937431689</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="3:16">
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="3:17">
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
@@ -14342,11 +14387,12 @@
         <f t="shared" si="0"/>
         <v>0.87216400172860853</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="3:16">
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="3:17">
       <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
@@ -14390,11 +14436,12 @@
         <f t="shared" si="0"/>
         <v>0.86683614138518539</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="3:16">
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="43" spans="3:17">
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
@@ -14438,11 +14485,12 @@
         <f t="shared" si="0"/>
         <v>0.85541777224237836</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="3:16">
+      <c r="Q43" s="21"/>
+    </row>
+    <row r="44" spans="3:17">
       <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
@@ -14486,11 +14534,12 @@
         <f t="shared" si="0"/>
         <v>0.84103628074581638</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="3:16">
+      <c r="Q44" s="21"/>
+    </row>
+    <row r="45" spans="3:17">
       <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
@@ -14534,11 +14583,12 @@
         <f t="shared" si="0"/>
         <v>0.81132714394559358</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="3:16">
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="3:17">
       <c r="C46" s="2" t="s">
         <v>45</v>
       </c>
@@ -14582,11 +14632,12 @@
         <f t="shared" si="0"/>
         <v>0.78002007215124636</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="3:16">
+      <c r="Q46" s="21"/>
+    </row>
+    <row r="47" spans="3:17">
       <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
@@ -14630,11 +14681,12 @@
         <f t="shared" si="0"/>
         <v>0.70140211640211636</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="3:16">
+      <c r="Q47" s="21"/>
+    </row>
+    <row r="48" spans="3:17">
       <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
@@ -14678,11 +14730,12 @@
         <f t="shared" si="0"/>
         <v>0.45760721624723122</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48" s="21"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
@@ -14726,11 +14779,12 @@
         <f t="shared" si="0"/>
         <v>0.25098204634731486</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49" s="21"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
@@ -14773,11 +14827,12 @@
         <f t="shared" si="0"/>
         <v>0.13579511614055986</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50" s="21"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="C51" s="2" t="s">
         <v>50</v>
       </c>
@@ -14820,11 +14875,12 @@
         <f t="shared" si="0"/>
         <v>9.7568685298843605E-2</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51" s="21"/>
+    </row>
+    <row r="52" spans="1:17">
       <c r="C52" s="2" t="s">
         <v>51</v>
       </c>
@@ -14867,11 +14923,12 @@
         <f t="shared" si="0"/>
         <v>7.9125270273968859E-2</v>
       </c>
-      <c r="P52" s="7">
+      <c r="P52" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52" s="21"/>
+    </row>
+    <row r="53" spans="1:17">
       <c r="C53" s="2" t="s">
         <v>52</v>
       </c>
@@ -14914,11 +14971,12 @@
         <f t="shared" si="0"/>
         <v>1.136996103999364E-2</v>
       </c>
-      <c r="P53" s="7">
+      <c r="P53" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53" s="21"/>
+    </row>
+    <row r="54" spans="1:17">
       <c r="C54" s="2" t="s">
         <v>53</v>
       </c>
@@ -14961,11 +15019,12 @@
         <f t="shared" si="0"/>
         <v>3.5860787905368798E-3</v>
       </c>
-      <c r="P54" s="7">
+      <c r="P54" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54" s="21"/>
+    </row>
+    <row r="55" spans="1:17">
       <c r="C55" s="2" t="s">
         <v>54</v>
       </c>
@@ -15008,53 +15067,54 @@
         <f t="shared" si="0"/>
         <v>2.2356587571769728E-3</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P55" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55" s="21"/>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:17">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:17">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:17">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:17">
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:17">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:17">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:17">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:17">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="3"/>

--- a/intensities/tilastokeskus data väestörakenne 2018 naiset.xlsx
+++ b/intensities/tilastokeskus data väestörakenne 2018 naiset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antti/Github/econogym/intensities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF20844-469E-C148-A2A8-DA1C09750049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AA302E-1900-9B4C-900F-6FC9E7DB87F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7720" yWindow="1160" windowWidth="20620" windowHeight="14600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12508,7 +12508,7 @@
   <dimension ref="A1:Q350"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
